--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q424"/>
+  <dimension ref="A1:Q435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20794,6 +20794,539 @@
         </is>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17 22:32:46+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="n">
+        <v>405.22</v>
+      </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="K425" t="n">
+        <v>324.04</v>
+      </c>
+      <c r="L425" t="n">
+        <v>331.5963636363636</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="n">
+        <v>429.64</v>
+      </c>
+      <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:33:20+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="n">
+        <v>368.39</v>
+      </c>
+      <c r="I426" t="n">
+        <v>355.22</v>
+      </c>
+      <c r="J426" t="n">
+        <v>346.21</v>
+      </c>
+      <c r="K426" t="n">
+        <v>338.53</v>
+      </c>
+      <c r="L426" t="n">
+        <v>360.7863636363636</v>
+      </c>
+      <c r="M426" t="n">
+        <v>375.54</v>
+      </c>
+      <c r="N426" t="n">
+        <v>382.29</v>
+      </c>
+      <c r="O426" t="n">
+        <v>386.33</v>
+      </c>
+      <c r="P426" t="n">
+        <v>397.69</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>360.09</v>
+      </c>
+      <c r="C427" t="n">
+        <v>377.1315384615385</v>
+      </c>
+      <c r="D427" t="n">
+        <v>375.5927272727273</v>
+      </c>
+      <c r="E427" t="n">
+        <v>390.3627272727272</v>
+      </c>
+      <c r="F427" t="n">
+        <v>386.1533333333333</v>
+      </c>
+      <c r="G427" t="n">
+        <v>374.2033333333333</v>
+      </c>
+      <c r="H427" t="n">
+        <v>371.0633333333333</v>
+      </c>
+      <c r="I427" t="n">
+        <v>363.34</v>
+      </c>
+      <c r="J427" t="n">
+        <v>351.7</v>
+      </c>
+      <c r="K427" t="n">
+        <v>347.57</v>
+      </c>
+      <c r="L427" t="n">
+        <v>354.4827272727272</v>
+      </c>
+      <c r="M427" t="n">
+        <v>375.5444444444445</v>
+      </c>
+      <c r="N427" t="n">
+        <v>380.88</v>
+      </c>
+      <c r="O427" t="n">
+        <v>392.74</v>
+      </c>
+      <c r="P427" t="n">
+        <v>406.7544444444445</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>323.07</v>
+      </c>
+      <c r="K428" t="n">
+        <v>321.74</v>
+      </c>
+      <c r="L428" t="n">
+        <v>348.3945454545454</v>
+      </c>
+      <c r="M428" t="n">
+        <v>356.51</v>
+      </c>
+      <c r="N428" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="O428" t="n">
+        <v>377.71</v>
+      </c>
+      <c r="P428" t="n">
+        <v>375.28</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:33:17+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C429" t="n">
+        <v>385.1</v>
+      </c>
+      <c r="D429" t="n">
+        <v>384.6445454545454</v>
+      </c>
+      <c r="E429" t="n">
+        <v>398.2245454545454</v>
+      </c>
+      <c r="F429" t="n">
+        <v>391.8466666666667</v>
+      </c>
+      <c r="G429" t="n">
+        <v>382.9166666666667</v>
+      </c>
+      <c r="H429" t="n">
+        <v>372.6466666666667</v>
+      </c>
+      <c r="I429" t="n">
+        <v>374.76</v>
+      </c>
+      <c r="J429" t="n">
+        <v>360.87</v>
+      </c>
+      <c r="K429" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="L429" t="n">
+        <v>369.3345454545454</v>
+      </c>
+      <c r="M429" t="n">
+        <v>388.3955555555555</v>
+      </c>
+      <c r="N429" t="n">
+        <v>394.13</v>
+      </c>
+      <c r="O429" t="n">
+        <v>392.03</v>
+      </c>
+      <c r="P429" t="n">
+        <v>415.9655555555556</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>367.92</v>
+      </c>
+      <c r="C430" t="n">
+        <v>383.9546153846154</v>
+      </c>
+      <c r="D430" t="n">
+        <v>387.0345454545454</v>
+      </c>
+      <c r="E430" t="n">
+        <v>398.3845454545455</v>
+      </c>
+      <c r="F430" t="n">
+        <v>390.8733333333333</v>
+      </c>
+      <c r="G430" t="n">
+        <v>378.5433333333333</v>
+      </c>
+      <c r="H430" t="n">
+        <v>376.1033333333333</v>
+      </c>
+      <c r="I430" t="n">
+        <v>379.15</v>
+      </c>
+      <c r="J430" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="K430" t="n">
+        <v>360.01</v>
+      </c>
+      <c r="L430" t="n">
+        <v>378.6845454545455</v>
+      </c>
+      <c r="M430" t="n">
+        <v>391.6044444444445</v>
+      </c>
+      <c r="N430" t="n">
+        <v>399.96</v>
+      </c>
+      <c r="O430" t="n">
+        <v>399.24</v>
+      </c>
+      <c r="P430" t="n">
+        <v>410.1644444444445</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:33:12+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>356.19</v>
+      </c>
+      <c r="C431" t="n">
+        <v>386.5115384615385</v>
+      </c>
+      <c r="D431" t="n">
+        <v>381.6509090909091</v>
+      </c>
+      <c r="E431" t="n">
+        <v>387.2209090909091</v>
+      </c>
+      <c r="F431" t="n">
+        <v>382.3933333333333</v>
+      </c>
+      <c r="G431" t="n">
+        <v>368.9533333333333</v>
+      </c>
+      <c r="H431" t="n">
+        <v>379.3933333333333</v>
+      </c>
+      <c r="I431" t="n">
+        <v>353.89</v>
+      </c>
+      <c r="J431" t="n">
+        <v>349.72</v>
+      </c>
+      <c r="K431" t="n">
+        <v>356.91</v>
+      </c>
+      <c r="L431" t="n">
+        <v>377.1509090909091</v>
+      </c>
+      <c r="M431" t="n">
+        <v>384.4211111111111</v>
+      </c>
+      <c r="N431" t="n">
+        <v>391.14</v>
+      </c>
+      <c r="O431" t="n">
+        <v>402.43</v>
+      </c>
+      <c r="P431" t="n">
+        <v>410.9911111111111</v>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:32:49+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>358.69</v>
+      </c>
+      <c r="C432" t="n">
+        <v>385.1838461538461</v>
+      </c>
+      <c r="D432" t="n">
+        <v>378.83</v>
+      </c>
+      <c r="E432" t="n">
+        <v>392.38</v>
+      </c>
+      <c r="F432" t="n">
+        <v>388.6566666666667</v>
+      </c>
+      <c r="G432" t="n">
+        <v>382.6966666666667</v>
+      </c>
+      <c r="H432" t="n">
+        <v>376.2366666666667</v>
+      </c>
+      <c r="I432" t="n">
+        <v>350.19</v>
+      </c>
+      <c r="J432" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="K432" t="n">
+        <v>354.29</v>
+      </c>
+      <c r="L432" t="n">
+        <v>372.96</v>
+      </c>
+      <c r="M432" t="n">
+        <v>381.2988888888889</v>
+      </c>
+      <c r="N432" t="n">
+        <v>389.64</v>
+      </c>
+      <c r="O432" t="n">
+        <v>402.56</v>
+      </c>
+      <c r="P432" t="n">
+        <v>411.0688888888889</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:27:05+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="n">
+        <v>416.7111111111111</v>
+      </c>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 22:33:19+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="C434" t="n">
+        <v>381.3661538461538</v>
+      </c>
+      <c r="D434" t="n">
+        <v>388.29</v>
+      </c>
+      <c r="E434" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="F434" t="n">
+        <v>383.2233333333333</v>
+      </c>
+      <c r="G434" t="n">
+        <v>383.0433333333333</v>
+      </c>
+      <c r="H434" t="n">
+        <v>369.0133333333333</v>
+      </c>
+      <c r="I434" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="J434" t="n">
+        <v>361.65</v>
+      </c>
+      <c r="K434" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="L434" t="n">
+        <v>373.31</v>
+      </c>
+      <c r="M434" t="n">
+        <v>393.8211111111111</v>
+      </c>
+      <c r="N434" t="n">
+        <v>400.67</v>
+      </c>
+      <c r="O434" t="n">
+        <v>404.57</v>
+      </c>
+      <c r="P434" t="n">
+        <v>432.8411111111111</v>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:32:47+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>381.1890909090909</v>
+      </c>
+      <c r="M435" t="n">
+        <v>372.7866666666667</v>
+      </c>
+      <c r="N435" t="n">
+        <v>384.35</v>
+      </c>
+      <c r="O435" t="n">
+        <v>393.99</v>
+      </c>
+      <c r="P435" t="n">
+        <v>398.3566666666667</v>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20805,7 +21338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25573,6 +26106,136 @@
       </c>
       <c r="B476" t="n">
         <v>0.73</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2024-12-17 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-02-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -25741,28 +26404,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2853086461504232</v>
+        <v>-0.3154719655633028</v>
       </c>
       <c r="J2" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K2" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02333686088610298</v>
+        <v>0.02924825959676003</v>
       </c>
       <c r="M2" t="n">
-        <v>10.55032742720811</v>
+        <v>10.48120398913818</v>
       </c>
       <c r="N2" t="n">
-        <v>182.232620636328</v>
+        <v>180.3502057629717</v>
       </c>
       <c r="O2" t="n">
-        <v>13.49935630451793</v>
+        <v>13.4294529212091</v>
       </c>
       <c r="P2" t="n">
-        <v>377.9852056207557</v>
+        <v>378.2738904494046</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25818,28 +26481,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1958849954177226</v>
+        <v>-0.1684135099171477</v>
       </c>
       <c r="J3" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01068451699452089</v>
+        <v>0.00818086246593186</v>
       </c>
       <c r="M3" t="n">
-        <v>10.56356485765204</v>
+        <v>10.51044847565701</v>
       </c>
       <c r="N3" t="n">
-        <v>190.8925914959569</v>
+        <v>188.4451206192624</v>
       </c>
       <c r="O3" t="n">
-        <v>13.81638851132802</v>
+        <v>13.72753148309128</v>
       </c>
       <c r="P3" t="n">
-        <v>380.598378718328</v>
+        <v>380.3356952921859</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25895,28 +26558,28 @@
         <v>0.0653</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4783739151090897</v>
+        <v>-0.4553751368289141</v>
       </c>
       <c r="J4" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06481999316771947</v>
+        <v>0.06100636598131359</v>
       </c>
       <c r="M4" t="n">
-        <v>10.44318724088861</v>
+        <v>10.36909574799655</v>
       </c>
       <c r="N4" t="n">
-        <v>178.490268591302</v>
+        <v>176.186397903594</v>
       </c>
       <c r="O4" t="n">
-        <v>13.36002502210613</v>
+        <v>13.27352243767999</v>
       </c>
       <c r="P4" t="n">
-        <v>388.4352854789566</v>
+        <v>388.2184842719964</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25972,28 +26635,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4176716263440582</v>
+        <v>-0.356215682325116</v>
       </c>
       <c r="J5" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05490790747225816</v>
+        <v>0.04100708871533487</v>
       </c>
       <c r="M5" t="n">
-        <v>9.810176229936994</v>
+        <v>9.944313360603891</v>
       </c>
       <c r="N5" t="n">
-        <v>159.7023084730358</v>
+        <v>161.6898948938137</v>
       </c>
       <c r="O5" t="n">
-        <v>12.63733787128586</v>
+        <v>12.71573414686756</v>
       </c>
       <c r="P5" t="n">
-        <v>387.2895898806308</v>
+        <v>386.7196152707327</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26049,28 +26712,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3460294005648031</v>
+        <v>-0.294387097797512</v>
       </c>
       <c r="J6" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K6" t="n">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03873669717756012</v>
+        <v>0.0289624003318697</v>
       </c>
       <c r="M6" t="n">
-        <v>9.531228760457553</v>
+        <v>9.593470617164609</v>
       </c>
       <c r="N6" t="n">
-        <v>156.0679644016038</v>
+        <v>156.6594205324045</v>
       </c>
       <c r="O6" t="n">
-        <v>12.49271645406249</v>
+        <v>12.51636610731743</v>
       </c>
       <c r="P6" t="n">
-        <v>386.5727842926264</v>
+        <v>386.0830650884312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26126,28 +26789,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1877593078970156</v>
+        <v>-0.193154202068603</v>
       </c>
       <c r="J7" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009765527611059088</v>
+        <v>0.01071470415240638</v>
       </c>
       <c r="M7" t="n">
-        <v>10.28391153702412</v>
+        <v>10.1745672444372</v>
       </c>
       <c r="N7" t="n">
-        <v>187.2267757292609</v>
+        <v>184.269071188526</v>
       </c>
       <c r="O7" t="n">
-        <v>13.68308356070593</v>
+        <v>13.57457443857913</v>
       </c>
       <c r="P7" t="n">
-        <v>384.6014264575085</v>
+        <v>384.6531742946603</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26203,28 +26866,28 @@
         <v>0.0799</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05516645127689463</v>
+        <v>-0.06384785571116025</v>
       </c>
       <c r="J8" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K8" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009179671874929296</v>
+        <v>0.001268251259239461</v>
       </c>
       <c r="M8" t="n">
-        <v>10.54370792159178</v>
+        <v>10.49949047004252</v>
       </c>
       <c r="N8" t="n">
-        <v>170.7331749016343</v>
+        <v>170.0111104207633</v>
       </c>
       <c r="O8" t="n">
-        <v>13.06649053501491</v>
+        <v>13.03883086863095</v>
       </c>
       <c r="P8" t="n">
-        <v>380.6413901775546</v>
+        <v>380.7272662058415</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26280,28 +26943,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0569698162368572</v>
+        <v>-0.09590413742120364</v>
       </c>
       <c r="J9" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007971495658962713</v>
+        <v>0.002318681688382451</v>
       </c>
       <c r="M9" t="n">
-        <v>11.41606064909743</v>
+        <v>11.42495718702661</v>
       </c>
       <c r="N9" t="n">
-        <v>211.2757236950133</v>
+        <v>210.601177589395</v>
       </c>
       <c r="O9" t="n">
-        <v>14.53532674882176</v>
+        <v>14.51210451965513</v>
       </c>
       <c r="P9" t="n">
-        <v>373.7916405068112</v>
+        <v>374.1685266203651</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26357,28 +27020,28 @@
         <v>0.0623</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3935623559001521</v>
+        <v>-0.4987882771086914</v>
       </c>
       <c r="J10" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K10" t="n">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03640451988851923</v>
+        <v>0.05618276074203776</v>
       </c>
       <c r="M10" t="n">
-        <v>11.42025081645863</v>
+        <v>11.57977217444538</v>
       </c>
       <c r="N10" t="n">
-        <v>206.8975092042168</v>
+        <v>217.7394292201834</v>
       </c>
       <c r="O10" t="n">
-        <v>14.3839323275736</v>
+        <v>14.75599638181656</v>
       </c>
       <c r="P10" t="n">
-        <v>375.0103618466724</v>
+        <v>376.0508882850701</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26434,28 +27097,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4530792987968693</v>
+        <v>-0.558655364263455</v>
       </c>
       <c r="J11" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K11" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04722059688596192</v>
+        <v>0.06968842217874371</v>
       </c>
       <c r="M11" t="n">
-        <v>11.06438411225005</v>
+        <v>11.28587817011229</v>
       </c>
       <c r="N11" t="n">
-        <v>203.0216103186823</v>
+        <v>212.1810404786966</v>
       </c>
       <c r="O11" t="n">
-        <v>14.24856520210657</v>
+        <v>14.56643540742541</v>
       </c>
       <c r="P11" t="n">
-        <v>376.3155074533103</v>
+        <v>377.3591522460574</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26511,28 +27174,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6929909999622913</v>
+        <v>-0.6883905311448414</v>
       </c>
       <c r="J12" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K12" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1051351500550624</v>
+        <v>0.1077239094826646</v>
       </c>
       <c r="M12" t="n">
-        <v>11.20807358423844</v>
+        <v>11.26536163670751</v>
       </c>
       <c r="N12" t="n">
-        <v>201.2370439816181</v>
+        <v>202.1574008943098</v>
       </c>
       <c r="O12" t="n">
-        <v>14.18580431211491</v>
+        <v>14.21820666941896</v>
       </c>
       <c r="P12" t="n">
-        <v>381.6655056787572</v>
+        <v>381.6183287739598</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26588,28 +27251,28 @@
         <v>0.0574</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.639876905141862</v>
+        <v>-0.5346618572212756</v>
       </c>
       <c r="J13" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K13" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08557850289811408</v>
+        <v>0.06180147544519221</v>
       </c>
       <c r="M13" t="n">
-        <v>11.35732563443758</v>
+        <v>11.55677212516579</v>
       </c>
       <c r="N13" t="n">
-        <v>219.6395773275303</v>
+        <v>227.1976067543039</v>
       </c>
       <c r="O13" t="n">
-        <v>14.82024214807337</v>
+        <v>15.07307555724126</v>
       </c>
       <c r="P13" t="n">
-        <v>384.2791698033018</v>
+        <v>383.2539101798085</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26665,28 +27328,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5900867902326287</v>
+        <v>-0.4887422923209176</v>
       </c>
       <c r="J14" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K14" t="n">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07997418207575979</v>
+        <v>0.05738209287485707</v>
       </c>
       <c r="M14" t="n">
-        <v>11.19860204486938</v>
+        <v>11.29815872662953</v>
       </c>
       <c r="N14" t="n">
-        <v>199.8948132254228</v>
+        <v>203.6617076417198</v>
       </c>
       <c r="O14" t="n">
-        <v>14.13841622054687</v>
+        <v>14.27100934207948</v>
       </c>
       <c r="P14" t="n">
-        <v>386.8505482645361</v>
+        <v>385.8620787108184</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -26742,28 +27405,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4006966670385817</v>
+        <v>-0.2750222350862838</v>
       </c>
       <c r="J15" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K15" t="n">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03044189005955722</v>
+        <v>0.01479897703136679</v>
       </c>
       <c r="M15" t="n">
-        <v>12.71048910498602</v>
+        <v>12.88196362321917</v>
       </c>
       <c r="N15" t="n">
-        <v>251.6869747590166</v>
+        <v>258.7797542020146</v>
       </c>
       <c r="O15" t="n">
-        <v>15.86464543439331</v>
+        <v>16.08663278010705</v>
       </c>
       <c r="P15" t="n">
-        <v>390.4019659893667</v>
+        <v>389.1608467168406</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -26819,28 +27482,28 @@
         <v>0.055</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7768097875451634</v>
+        <v>-0.5968108469805158</v>
       </c>
       <c r="J16" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K16" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07104956041155952</v>
+        <v>0.0434854210837522</v>
       </c>
       <c r="M16" t="n">
-        <v>15.31819663633988</v>
+        <v>15.63038381773422</v>
       </c>
       <c r="N16" t="n">
-        <v>394.4363731844122</v>
+        <v>408.9186618316988</v>
       </c>
       <c r="O16" t="n">
-        <v>19.86042228112011</v>
+        <v>20.22173735937886</v>
       </c>
       <c r="P16" t="n">
-        <v>400.3963433028763</v>
+        <v>398.6369616002484</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -26877,7 +27540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q424"/>
+  <dimension ref="A1:Q435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56093,6 +56756,775 @@
         </is>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17 22:32:46+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-45.50193792911576,166.720372651494</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-45.501049509428434,166.72151535204574</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-45.50055347756393,166.72344585742528</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-45.49997597314087,166.7238456734328</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-45.499414835049144,166.72427702077147</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>-45.4973153989125,166.72468502905772</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:33:20+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-45.50128026952677,166.72188975188473</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-45.50084479258552,166.7225144286394</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>-45.500374490109934,166.72311337232532</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>-45.4998969267133,166.72369883759845</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>-45.49925687247483,166.72397984396548</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>-45.49865956166137,166.72432072851979</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>-45.49809311450426,166.72471361803483</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>-45.49753566007948,166.72514041726402</t>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>-45.49694097386345,166.7254902502621</t>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-45.504040412539645,166.71825815713973</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-45.503476850786264,166.71873687547298</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-45.50303570871222,166.7193766008866</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-45.502487107823065,166.71987500395602</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-45.5020635546415,166.72053787102908</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-45.50169473135172,166.72126144102086</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-45.50126445570151,166.7218640943754</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-45.50080049532538,166.72243214346224</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>-45.5003445405857,166.72305773879074</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>-45.499847611258375,166.7236072300866</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>-45.49929098485357,166.7240440197209</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>-45.498659538427454,166.72432068241696</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>-45.498100285337536,166.7247284438101</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>-45.49750306091995,166.72507301831604</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>-45.4968948752588,166.7253949415318</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>-45.500500725179464,166.7233478647922</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>-45.499988520177375,166.7238689807469</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>-45.499323931260875,166.72410600206277</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>-45.49875904328792,166.72451812963305</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>-45.498156634803806,166.72484494720112</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>-45.49757949851816,166.72523105372971</t>
+        </is>
+      </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>-45.497054943002944,166.7257258824536</t>
+        </is>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:33:17+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>-45.50402058007216,166.7182320740857</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>-45.503424347878635,166.71866782542563</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-45.502976068035444,166.71929816316757</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-45.50243530801388,166.71980687837393</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-45.502026042705026,166.7204885361679</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>-45.501638347408075,166.7211843894722</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>-45.50125508965549,166.7218488982265</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>-45.50073819539461,166.72231641748894</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>-45.500294515552284,166.7229648136959</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>-45.49977380161095,166.72347012313276</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>-45.49921061359765,166.7238928171777</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>-45.498592357516195,166.7241873762731</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>-45.498032899778835,166.72458912373503</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>-45.49750667174907,166.72508048371816</t>
+        </is>
+      </c>
+      <c r="P429" t="inlineStr">
+        <is>
+          <t>-45.49684803068499,166.72529809082948</t>
+        </is>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-45.50398882175825,166.71819030657556</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-45.50343189463528,166.7186777506538</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-45.502960320780744,166.71927745286445</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-45.50243425380834,166.71980549191562</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-45.502032455753984,166.72049697046035</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>-45.501666647235375,166.72122306260968</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>-45.501234642092,166.72181572265188</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-45.50071424644417,166.72227193095424</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>-45.50028671447774,166.7229503226658</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>-45.499779747848144,166.72348116869043</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>-45.4991600155768,166.72379762745788</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>-45.49857558259624,166.72415409012808</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>-45.49800325008434,166.72452782301093</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>-45.49747000401321,166.7250046731312</t>
+        </is>
+      </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>-45.49687753316891,166.72535908689173</t>
+        </is>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:33:12+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-45.504066109084675,166.71829195248614</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-45.50341504747574,166.71865559386868</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-45.50299579253066,166.7193241042368</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-45.50250780856974,166.71990222901545</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>-45.50208832832267,166.72057045287036</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>-45.50172870405841,166.72130786656936</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>-45.501215180420566,166.72178414669366</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>-45.500852048166195,166.72252790639655</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>-45.50035534205625,166.72307780333722</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>-45.49979665915973,166.72351258267486</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>-45.49916831493617,166.72381324096628</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>-45.49861313447388,166.72422860363542</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>-45.49804810604285,166.72462056272568</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>-45.49745378068699,166.72497113144766</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>-45.49687332902436,166.72535039486124</t>
+        </is>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:32:49+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-45.504049636941396,166.718270288799</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-45.50342379542966,166.71866709886436</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-45.503014378954475,166.71934854857096</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-45.50247381645533,166.71985752352472</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-45.50204706081217,166.72051617870207</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>-45.501639771027705,166.72118633491874</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>-45.501233853371936,166.72181444297735</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>-45.50087223285682,166.72256540092764</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>-45.50035179611929,166.7230712164903</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>-45.499810951939644,166.7235391325735</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>-45.49919099426653,166.72385590742405</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>-45.49862945631271,166.72426099082205</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>-45.49805573460046,166.72463633480115</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>-45.49745311954811,166.72496976454562</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>-45.4968729334731,166.7253495770627</t>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:27:05+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>-45.49844433364833,166.72389365671404</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 22:33:19+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>-45.50397314026237,166.71816968280154</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>-45.50344894959301,166.71870018074605</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>-45.50295204882864,166.71926657385478</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-45.502478296826496,166.71986341598102</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>-45.502082859665,166.72056326059973</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>-45.50163752774828,166.72118326936666</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>-45.50127658226372,166.72188376939684</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-45.50078636601576,166.72240589735603</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>-45.50029026042091,166.72295690949716</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>-45.49973746953542,166.72340263381378</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>-45.49918910022321,166.72385234417186</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>-45.498563994653004,166.7241310964214</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>-45.49799963922758,166.72452035757567</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>-45.4974428973221,166.72494863014137</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>-45.49676220716464,166.72512065236248</t>
+        </is>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:32:47+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>-45.499146462084205,166.72377212941487</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>-45.49867395506337,166.72434928922502</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>-45.49808263796456,166.72469195768926</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>-45.49749670382537,166.72505987500483</t>
+        </is>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>-45.49693758343163,166.7254832405437</t>
+        </is>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -26249,7 +26249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26340,35 +26340,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26427,27 +26432,28 @@
       <c r="P2" t="n">
         <v>378.2738904494046</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (166.72137863713587 -45.50641295859437, 166.71374903253874 -45.50061158018495)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>166.7213786371359</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.50641295859437</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>166.7137490325387</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.50061158018495</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>166.7175638348373</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.50351226938966</v>
       </c>
     </row>
@@ -26504,27 +26510,28 @@
       <c r="P3" t="n">
         <v>380.3356952921859</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (166.7220050245886 -45.50596166921289, 166.71437540902912 -45.500160304239685)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>166.7220050245886</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.50596166921289</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>166.7143754090291</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.50016030423969</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>166.7181902168089</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.50306098672628</v>
       </c>
     </row>
@@ -26581,27 +26588,28 @@
       <c r="P4" t="n">
         <v>388.2184842719964</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (166.72263141204087 -45.50551037621379, 166.7150017855204 -45.49970902467681)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>166.7226314120409</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.50551037621379</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>166.7150017855204</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.49970902467681</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>166.7188165987806</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.5026097004453</v>
       </c>
     </row>
@@ -26658,27 +26666,28 @@
       <c r="P5" t="n">
         <v>386.7196152707327</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (166.7232577994927 -45.505059079597096, 166.71562816201262 -45.499257741496315)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>166.7232577994927</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.5050590795971</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>166.7156281620126</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.49925774149632</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>166.7194429807527</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.50215841054671</v>
       </c>
     </row>
@@ -26735,27 +26744,28 @@
       <c r="P6" t="n">
         <v>386.0830650884312</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (166.72388418694408 -45.50460777936266, 166.71625453850564 -45.49880645469835)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>166.7238841869441</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.50460777936266</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>166.7162545385056</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.49880645469835</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>166.7200693627249</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.50170711703051</v>
       </c>
     </row>
@@ -26812,27 +26822,28 @@
       <c r="P7" t="n">
         <v>384.6531742946603</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (166.72457064701754 -45.504116157720425, 166.71678448997667 -45.498418376002924)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>166.7245706470175</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.50411615772042</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>166.7167844899767</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.49841837600292</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>166.7206775684971</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.50126726686167</v>
       </c>
     </row>
@@ -26889,27 +26900,28 @@
       <c r="P8" t="n">
         <v>380.7272662058415</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (166.72542554104234 -45.50345939393725, 166.71697416807882 -45.49825032759011)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>166.7254255410423</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.50345939393725</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>166.7169741680788</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.49825032759011</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>166.7211998545606</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.50085486076368</v>
       </c>
     </row>
@@ -26966,27 +26978,28 @@
       <c r="P9" t="n">
         <v>374.1685266203651</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (166.72611423077564 -45.50278258226863, 166.71719018719415 -45.49797829362475)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>166.7261142307756</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.50278258226863</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>166.7171901871941</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.49797829362475</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>166.7216522089849</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.50038043794669</v>
       </c>
     </row>
@@ -27043,27 +27056,28 @@
       <c r="P10" t="n">
         <v>376.0508882850701</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (166.72662185273663 -45.50226311607705, 166.71769782753208 -45.49745884211821)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>166.7266218527366</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.50226311607705</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>166.7176978275321</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.49745884211821</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>166.7221598401343</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.49986097909763</v>
       </c>
     </row>
@@ -27120,27 +27134,28 @@
       <c r="P11" t="n">
         <v>377.3591522460574</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (166.7271294746975 -45.501743645092816, 166.71820546787043 -45.49693938581895)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>166.7271294746975</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.50174364509282</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>166.7182054678704</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.49693938581895</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>166.722667471284</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.49934151545588</v>
       </c>
     </row>
@@ -27197,27 +27212,28 @@
       <c r="P12" t="n">
         <v>381.6183287739598</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (166.7276530484271 -45.501209230344266, 166.71868738763192 -45.496443430815454)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>166.7276530484271</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.50120923034427</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>166.7186873876319</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.49644343081545</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>166.7231702180295</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.49882633057986</v>
       </c>
     </row>
@@ -27274,27 +27290,28 @@
       <c r="P13" t="n">
         <v>383.2539101798085</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (166.7282163952041 -45.50062268569034, 166.71908101987796 -45.49601873071398)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>166.7282163952041</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-45.50062268569034</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>166.719081019878</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-45.49601873071398</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>166.723648707541</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-45.49832070820216</v>
       </c>
     </row>
@@ -27351,27 +27368,28 @@
       <c r="P14" t="n">
         <v>385.8620787108184</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (166.7287334384259 -45.5000372620494, 166.71947314470125 -45.49555820990153)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>166.7287334384259</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-45.5000372620494</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>166.7194731447013</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-45.49555820990153</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>166.7241032915636</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-45.49779773597547</v>
       </c>
     </row>
@@ -27428,27 +27446,28 @@
       <c r="P15" t="n">
         <v>389.1608467168406</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (166.72920269312513 -45.49950034148693, 166.7199424262425 -45.495021304013406)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>166.7292026931251</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-45.49950034148693</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>166.7199424262425</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-45.49502130401341</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>166.7245725596838</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-45.49726082275016</v>
       </c>
     </row>
@@ -27505,27 +27524,28 @@
       <c r="P16" t="n">
         <v>398.6369616002484</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (166.72967194782427 -45.49896341580491, 166.72041170778394 -45.49448439300541)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>166.7296719478243</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-45.49896341580491</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>166.7204117077839</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-45.49448439300541</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>166.7250418278041</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-45.49672390440516</v>
       </c>
     </row>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q435"/>
+  <dimension ref="A1:Q441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21327,6 +21327,280 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:32:26+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="n">
+        <v>377.7566666666667</v>
+      </c>
+      <c r="G436" t="n">
+        <v>379.0066666666667</v>
+      </c>
+      <c r="H436" t="n">
+        <v>376.1266666666667</v>
+      </c>
+      <c r="I436" t="n">
+        <v>360.96</v>
+      </c>
+      <c r="J436" t="n">
+        <v>361.44</v>
+      </c>
+      <c r="K436" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="L436" t="n">
+        <v>369.4536363636364</v>
+      </c>
+      <c r="M436" t="n">
+        <v>372.8155555555555</v>
+      </c>
+      <c r="N436" t="n">
+        <v>380.09</v>
+      </c>
+      <c r="O436" t="n">
+        <v>397.02</v>
+      </c>
+      <c r="P436" t="n">
+        <v>398.2655555555555</v>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="n">
+        <v>376.52</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>393.12</v>
+      </c>
+      <c r="L437" t="n">
+        <v>384.4809090909091</v>
+      </c>
+      <c r="M437" t="n">
+        <v>384.2133333333333</v>
+      </c>
+      <c r="N437" t="n">
+        <v>433.71</v>
+      </c>
+      <c r="O437" t="n">
+        <v>396.17</v>
+      </c>
+      <c r="P437" t="n">
+        <v>392.4233333333333</v>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-31 22:32:58+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>368.63</v>
+      </c>
+      <c r="C438" t="n">
+        <v>384.6907692307692</v>
+      </c>
+      <c r="D438" t="n">
+        <v>381.9445454545455</v>
+      </c>
+      <c r="E438" t="n">
+        <v>379.5445454545454</v>
+      </c>
+      <c r="F438" t="n">
+        <v>377.9633333333333</v>
+      </c>
+      <c r="G438" t="n">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="H438" t="n">
+        <v>386.7633333333333</v>
+      </c>
+      <c r="I438" t="n">
+        <v>377.8200000000001</v>
+      </c>
+      <c r="J438" t="n">
+        <v>368.77</v>
+      </c>
+      <c r="K438" t="n">
+        <v>362.41</v>
+      </c>
+      <c r="L438" t="n">
+        <v>358.3445454545454</v>
+      </c>
+      <c r="M438" t="n">
+        <v>380.0577777777777</v>
+      </c>
+      <c r="N438" t="n">
+        <v>396.74</v>
+      </c>
+      <c r="O438" t="n">
+        <v>399.8</v>
+      </c>
+      <c r="P438" t="n">
+        <v>413.8777777777778</v>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>352.39</v>
+      </c>
+      <c r="K439" t="n">
+        <v>346.21</v>
+      </c>
+      <c r="L439" t="n">
+        <v>339.9863636363636</v>
+      </c>
+      <c r="M439" t="n">
+        <v>365.9722222222222</v>
+      </c>
+      <c r="N439" t="n">
+        <v>370.39</v>
+      </c>
+      <c r="O439" t="n">
+        <v>377.99</v>
+      </c>
+      <c r="P439" t="n">
+        <v>388.3422222222222</v>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>325.16</v>
+      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="C441" t="n">
+        <v>389.2676923076923</v>
+      </c>
+      <c r="D441" t="n">
+        <v>388.1254545454545</v>
+      </c>
+      <c r="E441" t="n">
+        <v>384.1654545454546</v>
+      </c>
+      <c r="F441" t="n">
+        <v>384.74</v>
+      </c>
+      <c r="G441" t="n">
+        <v>400.22</v>
+      </c>
+      <c r="H441" t="n">
+        <v>395.94</v>
+      </c>
+      <c r="I441" t="n">
+        <v>362.65</v>
+      </c>
+      <c r="J441" t="n">
+        <v>351.53</v>
+      </c>
+      <c r="K441" t="n">
+        <v>379.33</v>
+      </c>
+      <c r="L441" t="n">
+        <v>385.8354545454546</v>
+      </c>
+      <c r="M441" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="N441" t="n">
+        <v>388.25</v>
+      </c>
+      <c r="O441" t="n">
+        <v>393.97</v>
+      </c>
+      <c r="P441" t="n">
+        <v>392.82</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21338,7 +21612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26236,6 +26510,76 @@
       </c>
       <c r="B489" t="n">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-03-31 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-04-17 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -26409,28 +26753,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3154719655633028</v>
+        <v>-0.3195787517102467</v>
       </c>
       <c r="J2" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02924825959676003</v>
+        <v>0.03036841970639215</v>
       </c>
       <c r="M2" t="n">
-        <v>10.48120398913818</v>
+        <v>10.43180484612413</v>
       </c>
       <c r="N2" t="n">
-        <v>180.3502057629717</v>
+        <v>179.2617145909427</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4294529212091</v>
+        <v>13.38886532126389</v>
       </c>
       <c r="P2" t="n">
-        <v>378.2738904494046</v>
+        <v>378.3137495360271</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26487,28 +26831,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1684135099171477</v>
+        <v>-0.1551013229693632</v>
       </c>
       <c r="J3" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00818086246593186</v>
+        <v>0.007008514986019065</v>
       </c>
       <c r="M3" t="n">
-        <v>10.51044847565701</v>
+        <v>10.51411061900197</v>
       </c>
       <c r="N3" t="n">
-        <v>188.4451206192624</v>
+        <v>188.0247221536115</v>
       </c>
       <c r="O3" t="n">
-        <v>13.72753148309128</v>
+        <v>13.71221069534784</v>
       </c>
       <c r="P3" t="n">
-        <v>380.3356952921859</v>
+        <v>380.2067833012256</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26565,28 +26909,28 @@
         <v>0.0653</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4553751368289141</v>
+        <v>-0.4451099828773001</v>
       </c>
       <c r="J4" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06100636598131359</v>
+        <v>0.05902212162098019</v>
       </c>
       <c r="M4" t="n">
-        <v>10.36909574799655</v>
+        <v>10.3577914434408</v>
       </c>
       <c r="N4" t="n">
-        <v>176.186397903594</v>
+        <v>175.5731115081526</v>
       </c>
       <c r="O4" t="n">
-        <v>13.27352243767999</v>
+        <v>13.25040042821924</v>
       </c>
       <c r="P4" t="n">
-        <v>388.2184842719964</v>
+        <v>388.1205087830421</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26643,28 +26987,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.356215682325116</v>
+        <v>-0.3509105693806814</v>
       </c>
       <c r="J5" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04100708871533487</v>
+        <v>0.04035666913316815</v>
       </c>
       <c r="M5" t="n">
-        <v>9.944313360603891</v>
+        <v>9.909716878530448</v>
       </c>
       <c r="N5" t="n">
-        <v>161.6898948938137</v>
+        <v>160.8266692666107</v>
       </c>
       <c r="O5" t="n">
-        <v>12.71573414686756</v>
+        <v>12.6817455133988</v>
       </c>
       <c r="P5" t="n">
-        <v>386.7196152707327</v>
+        <v>386.6697827818957</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26721,28 +27065,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.294387097797512</v>
+        <v>-0.2914865151643357</v>
       </c>
       <c r="J6" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K6" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0289624003318697</v>
+        <v>0.02895360589977902</v>
       </c>
       <c r="M6" t="n">
-        <v>9.593470617164609</v>
+        <v>9.528808336692659</v>
       </c>
       <c r="N6" t="n">
-        <v>156.6594205324045</v>
+        <v>155.3165180618949</v>
       </c>
       <c r="O6" t="n">
-        <v>12.51636610731743</v>
+        <v>12.46260478639578</v>
       </c>
       <c r="P6" t="n">
-        <v>386.0830650884312</v>
+        <v>386.0550824323987</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26799,28 +27143,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.193154202068603</v>
+        <v>-0.1778984127674269</v>
       </c>
       <c r="J7" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01071470415240638</v>
+        <v>0.009214943419159627</v>
       </c>
       <c r="M7" t="n">
-        <v>10.1745672444372</v>
+        <v>10.16305730697292</v>
       </c>
       <c r="N7" t="n">
-        <v>184.269071188526</v>
+        <v>183.9230743340646</v>
       </c>
       <c r="O7" t="n">
-        <v>13.57457443857913</v>
+        <v>13.56182415215832</v>
       </c>
       <c r="P7" t="n">
-        <v>384.6531742946603</v>
+        <v>384.5043080814693</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26877,28 +27221,28 @@
         <v>0.0799</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06384785571116025</v>
+        <v>-0.05049090019504846</v>
       </c>
       <c r="J8" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K8" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001268251259239461</v>
+        <v>0.0008037858849205826</v>
       </c>
       <c r="M8" t="n">
-        <v>10.49949047004252</v>
+        <v>10.48442731612896</v>
       </c>
       <c r="N8" t="n">
-        <v>170.0111104207633</v>
+        <v>169.4875301860098</v>
       </c>
       <c r="O8" t="n">
-        <v>13.03883086863095</v>
+        <v>13.01873765716207</v>
       </c>
       <c r="P8" t="n">
-        <v>380.7272662058415</v>
+        <v>380.594228567342</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26955,28 +27299,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09590413742120364</v>
+        <v>-0.1012964207160564</v>
       </c>
       <c r="J9" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K9" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002318681688382451</v>
+        <v>0.002643288809151323</v>
       </c>
       <c r="M9" t="n">
-        <v>11.42495718702661</v>
+        <v>11.37953219165564</v>
       </c>
       <c r="N9" t="n">
-        <v>210.601177589395</v>
+        <v>208.807350696922</v>
       </c>
       <c r="O9" t="n">
-        <v>14.51210451965513</v>
+        <v>14.45016784320937</v>
       </c>
       <c r="P9" t="n">
-        <v>374.1685266203651</v>
+        <v>374.2214362469316</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27033,28 +27377,28 @@
         <v>0.0623</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4987882771086914</v>
+        <v>-0.5344481686334492</v>
       </c>
       <c r="J10" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K10" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05618276074203776</v>
+        <v>0.06441288852377303</v>
       </c>
       <c r="M10" t="n">
-        <v>11.57977217444538</v>
+        <v>11.59583792592317</v>
       </c>
       <c r="N10" t="n">
-        <v>217.7394292201834</v>
+        <v>219.7539536632906</v>
       </c>
       <c r="O10" t="n">
-        <v>14.75599638181656</v>
+        <v>14.82410043352684</v>
       </c>
       <c r="P10" t="n">
-        <v>376.0508882850701</v>
+        <v>376.4089235018526</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27111,28 +27455,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.558655364263455</v>
+        <v>-0.5393873901695365</v>
       </c>
       <c r="J11" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K11" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06968842217874371</v>
+        <v>0.06610438934765328</v>
       </c>
       <c r="M11" t="n">
-        <v>11.28587817011229</v>
+        <v>11.3053116177826</v>
       </c>
       <c r="N11" t="n">
-        <v>212.1810404786966</v>
+        <v>213.4501773745119</v>
       </c>
       <c r="O11" t="n">
-        <v>14.56643540742541</v>
+        <v>14.60993420158051</v>
       </c>
       <c r="P11" t="n">
-        <v>377.3591522460574</v>
+        <v>377.1661799638717</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27189,28 +27533,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6883905311448414</v>
+        <v>-0.6764070819435097</v>
       </c>
       <c r="J12" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K12" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1077239094826646</v>
+        <v>0.1054905989404539</v>
       </c>
       <c r="M12" t="n">
-        <v>11.26536163670751</v>
+        <v>11.33175880592013</v>
       </c>
       <c r="N12" t="n">
-        <v>202.1574008943098</v>
+        <v>203.9071879857945</v>
       </c>
       <c r="O12" t="n">
-        <v>14.21820666941896</v>
+        <v>14.27960741707539</v>
       </c>
       <c r="P12" t="n">
-        <v>381.6183287739598</v>
+        <v>381.4997078975269</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27267,28 +27611,28 @@
         <v>0.0574</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5346618572212756</v>
+        <v>-0.504849166784477</v>
       </c>
       <c r="J13" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06180147544519221</v>
+        <v>0.05676002279649206</v>
       </c>
       <c r="M13" t="n">
-        <v>11.55677212516579</v>
+        <v>11.53910754870911</v>
       </c>
       <c r="N13" t="n">
-        <v>227.1976067543039</v>
+        <v>225.9677379659653</v>
       </c>
       <c r="O13" t="n">
-        <v>15.07307555724126</v>
+        <v>15.03222332078543</v>
       </c>
       <c r="P13" t="n">
-        <v>383.2539101798085</v>
+        <v>382.9605093286783</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27345,28 +27689,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4887422923209176</v>
+        <v>-0.4200692600874955</v>
       </c>
       <c r="J14" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05738209287485707</v>
+        <v>0.04166544761192481</v>
       </c>
       <c r="M14" t="n">
-        <v>11.29815872662953</v>
+        <v>11.43761766899714</v>
       </c>
       <c r="N14" t="n">
-        <v>203.6617076417198</v>
+        <v>214.8778920257335</v>
       </c>
       <c r="O14" t="n">
-        <v>14.27100934207948</v>
+        <v>14.65871385987644</v>
       </c>
       <c r="P14" t="n">
-        <v>385.8620787108184</v>
+        <v>385.1864783837996</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27423,28 +27767,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2750222350862838</v>
+        <v>-0.2381253020441138</v>
       </c>
       <c r="J15" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K15" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01479897703136679</v>
+        <v>0.01141788775338615</v>
       </c>
       <c r="M15" t="n">
-        <v>12.88196362321917</v>
+        <v>12.87339258113824</v>
       </c>
       <c r="N15" t="n">
-        <v>258.7797542020146</v>
+        <v>257.2650986861678</v>
       </c>
       <c r="O15" t="n">
-        <v>16.08663278010705</v>
+        <v>16.03948561164503</v>
       </c>
       <c r="P15" t="n">
-        <v>389.1608467168406</v>
+        <v>388.7927233693642</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27501,28 +27845,28 @@
         <v>0.055</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5968108469805158</v>
+        <v>-0.5458709709139139</v>
       </c>
       <c r="J16" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K16" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0434854210837522</v>
+        <v>0.03765621807626751</v>
       </c>
       <c r="M16" t="n">
-        <v>15.63038381773422</v>
+        <v>15.56246483954631</v>
       </c>
       <c r="N16" t="n">
-        <v>408.9186618316988</v>
+        <v>406.0138651085593</v>
       </c>
       <c r="O16" t="n">
-        <v>20.22173735937886</v>
+        <v>20.1497857335645</v>
       </c>
       <c r="P16" t="n">
-        <v>398.6369616002484</v>
+        <v>398.1345187699646</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27560,7 +27904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q435"/>
+  <dimension ref="A1:Q441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57545,6 +57889,392 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:32:26+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>-45.50211887812612,166.72061063140362</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>-45.50166364900724,166.7212189653776</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>-45.501234504065984,166.72181549870885</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-45.50081347901055,166.7224562615177</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>-45.50029140603325,166.72295903755054</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>-45.499762072791654,166.72344833603054</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>-45.49920996913133,166.72389160474555</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>-45.49867380404303,166.72434898955652</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>-45.49810430303769,166.72473675045185</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>-45.49748129422243,166.72502801563118</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>-45.49693804679067,166.72548419853848</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>-45.50072859399493,166.72229858233598</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>-45.49959912364878,166.7231456482738</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>-45.49912864821198,166.7237386163982</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>-45.498614220660556,166.7242307589387</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>-45.497831606757444,166.7241729530609</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>-45.49748561704916,166.72503695307742</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>-45.49696775826118,166.7255456270683</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-31 22:32:58+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>-45.503984143665264,166.71818415410397</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>-45.50342704423501,166.71867137157804</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-45.50299385781726,166.71932155975819</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-45.50255838641265,166.71996874773416</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>-45.5021175164529,166.72060884055506</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>-45.501625297560174,166.72116655621687</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>-45.5011715838826,166.7217134127885</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>-45.50072150205039,166.72228540864745</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>-45.500251418686396,166.72288475840614</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>-45.499766655214515,166.7234568481996</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>-45.499270086474816,166.72400470350016</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>-45.498635944386564,166.72427386502224</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>-45.498019626077074,166.72456168034947</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>-45.497467156031824,166.7249987849345</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>-45.49685864841818,166.7253200428619</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>-45.50034077643613,166.72305074660218</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>-45.4998550304018,166.72362101173718</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>-45.49936943237931,166.72419160389904</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>-45.49870957841523,166.72441997645876</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>-45.49815363424828,166.72483874349464</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>-45.49757807453277,166.72522810961948</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>-45.49698851332737,166.725588538289</t>
+        </is>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>-45.500489323671815,166.72332668543706</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>-45.50400608457779,166.71821301007108</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>-45.50339688761226,166.71863171068222</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>-45.50295313298751,166.71926799970598</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>-45.5025279402802,166.71992870571998</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>-45.50207286673535,166.72055011810085</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>-45.50152637747884,166.72103137746248</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>-45.50111730012517,166.72162533947406</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>-45.50080425950349,166.7224391356704</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>-45.5003454679848,166.72305946150402</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>-45.49967435201629,166.72328538906766</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>-45.499121318005166,166.7237248261822</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>-45.49858031070822,166.72416347202426</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>-45.49806280372875,166.72465095026172</t>
+        </is>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>-45.497496805538894,166.7250600852978</t>
+        </is>
+      </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>-45.49696574095612,166.72554145628163</t>
+        </is>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q441"/>
+  <dimension ref="A1:Q443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21580,9 +21580,7 @@
       <c r="K441" t="n">
         <v>379.33</v>
       </c>
-      <c r="L441" t="n">
-        <v>385.8354545454546</v>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>390.7</v>
       </c>
@@ -21598,6 +21596,76 @@
       <c r="Q441" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="n">
+        <v>622.6966666666666</v>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-18 22:32:16+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>390.43</v>
+      </c>
+      <c r="C443" t="n">
+        <v>426.5707692307692</v>
+      </c>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="n">
+        <v>594.7963636363636</v>
+      </c>
+      <c r="F443" t="n">
+        <v>623.4400000000001</v>
+      </c>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>613.1863636363636</v>
+      </c>
+      <c r="M443" t="n">
+        <v>571.9433333333334</v>
+      </c>
+      <c r="N443" t="n">
+        <v>348.02</v>
+      </c>
+      <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -21612,7 +21680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26580,6 +26648,26 @@
       </c>
       <c r="B496" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-05-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -26753,28 +26841,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3195787517102467</v>
+        <v>-0.306931231387871</v>
       </c>
       <c r="J2" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K2" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03036841970639215</v>
+        <v>0.02805885227079907</v>
       </c>
       <c r="M2" t="n">
-        <v>10.43180484612413</v>
+        <v>10.47196018994778</v>
       </c>
       <c r="N2" t="n">
-        <v>179.2617145909427</v>
+        <v>180.0015767790724</v>
       </c>
       <c r="O2" t="n">
-        <v>13.38886532126389</v>
+        <v>13.41646662795657</v>
       </c>
       <c r="P2" t="n">
-        <v>378.3137495360271</v>
+        <v>378.190603941227</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26831,28 +26919,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1551013229693632</v>
+        <v>-0.1245284592039381</v>
       </c>
       <c r="J3" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K3" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007008514986019065</v>
+        <v>0.00437346819728146</v>
       </c>
       <c r="M3" t="n">
-        <v>10.51411061900197</v>
+        <v>10.64367563331429</v>
       </c>
       <c r="N3" t="n">
-        <v>188.0247221536115</v>
+        <v>195.39060078573</v>
       </c>
       <c r="O3" t="n">
-        <v>13.71221069534784</v>
+        <v>13.97821879875008</v>
       </c>
       <c r="P3" t="n">
-        <v>380.2067833012256</v>
+        <v>379.9095681499556</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26912,7 +27000,7 @@
         <v>-0.4451099828773001</v>
       </c>
       <c r="J4" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K4" t="n">
         <v>317</v>
@@ -26987,28 +27075,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3509105693806814</v>
+        <v>-0.2145131847632446</v>
       </c>
       <c r="J5" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K5" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04035666913316815</v>
+        <v>0.008257569467147952</v>
       </c>
       <c r="M5" t="n">
-        <v>9.909716878530448</v>
+        <v>10.61333945116114</v>
       </c>
       <c r="N5" t="n">
-        <v>160.8266692666107</v>
+        <v>304.7562648773762</v>
       </c>
       <c r="O5" t="n">
-        <v>12.6817455133988</v>
+        <v>17.45726968564604</v>
       </c>
       <c r="P5" t="n">
-        <v>386.6697827818957</v>
+        <v>385.3849019554407</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27065,28 +27153,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2914865151643357</v>
+        <v>0.006288314949168889</v>
       </c>
       <c r="J6" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K6" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02895360589977902</v>
+        <v>4.19689133979162e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>9.528808336692659</v>
+        <v>11.34682518317819</v>
       </c>
       <c r="N6" t="n">
-        <v>155.3165180618949</v>
+        <v>517.2160060954484</v>
       </c>
       <c r="O6" t="n">
-        <v>12.46260478639578</v>
+        <v>22.74238347437331</v>
       </c>
       <c r="P6" t="n">
-        <v>386.0550824323987</v>
+        <v>383.1825652011165</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27146,7 +27234,7 @@
         <v>-0.1778984127674269</v>
       </c>
       <c r="J7" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K7" t="n">
         <v>322</v>
@@ -27224,7 +27312,7 @@
         <v>-0.05049090019504846</v>
       </c>
       <c r="J8" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K8" t="n">
         <v>312</v>
@@ -27302,7 +27390,7 @@
         <v>-0.1012964207160564</v>
       </c>
       <c r="J9" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K9" t="n">
         <v>326</v>
@@ -27380,7 +27468,7 @@
         <v>-0.5344481686334492</v>
       </c>
       <c r="J10" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K10" t="n">
         <v>313</v>
@@ -27458,7 +27546,7 @@
         <v>-0.5393873901695365</v>
       </c>
       <c r="J11" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K11" t="n">
         <v>298</v>
@@ -27533,28 +27621,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6764070819435097</v>
+        <v>-0.51986477168637</v>
       </c>
       <c r="J12" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K12" t="n">
         <v>296</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1054905989404539</v>
+        <v>0.03349846190690642</v>
       </c>
       <c r="M12" t="n">
-        <v>11.33175880592013</v>
+        <v>12.10507531974401</v>
       </c>
       <c r="N12" t="n">
-        <v>203.9071879857945</v>
+        <v>409.8529408867967</v>
       </c>
       <c r="O12" t="n">
-        <v>14.27960741707539</v>
+        <v>20.2448250396687</v>
       </c>
       <c r="P12" t="n">
-        <v>381.4997078975269</v>
+        <v>379.9461621045235</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27611,28 +27699,28 @@
         <v>0.0574</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.504849166784477</v>
+        <v>-0.3725435717697269</v>
       </c>
       <c r="J13" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05676002279649206</v>
+        <v>0.02029362526049561</v>
       </c>
       <c r="M13" t="n">
-        <v>11.53910754870911</v>
+        <v>12.19289645227224</v>
       </c>
       <c r="N13" t="n">
-        <v>225.9677379659653</v>
+        <v>358.7820725308788</v>
       </c>
       <c r="O13" t="n">
-        <v>15.03222332078543</v>
+        <v>18.94154356252095</v>
       </c>
       <c r="P13" t="n">
-        <v>382.9605093286783</v>
+        <v>381.6522927397531</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27689,28 +27777,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4200692600874955</v>
+        <v>-0.4379033341186126</v>
       </c>
       <c r="J14" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K14" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04166544761192481</v>
+        <v>0.04496129080962608</v>
       </c>
       <c r="M14" t="n">
-        <v>11.43761766899714</v>
+        <v>11.49424790619303</v>
       </c>
       <c r="N14" t="n">
-        <v>214.8778920257335</v>
+        <v>216.4830795588696</v>
       </c>
       <c r="O14" t="n">
-        <v>14.65871385987644</v>
+        <v>14.71336397833173</v>
       </c>
       <c r="P14" t="n">
-        <v>385.1864783837996</v>
+        <v>385.3630265945347</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27770,7 +27858,7 @@
         <v>-0.2381253020441138</v>
       </c>
       <c r="J15" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K15" t="n">
         <v>291</v>
@@ -27848,7 +27936,7 @@
         <v>-0.5458709709139139</v>
       </c>
       <c r="J16" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K16" t="n">
         <v>263</v>
@@ -27904,7 +27992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q441"/>
+  <dimension ref="A1:Q443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58244,11 +58332,7 @@
           <t>-45.49967435201629,166.72328538906766</t>
         </is>
       </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>-45.499121318005166,166.7237248261822</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="inlineStr">
         <is>
           <t>-45.49858031070822,166.72416347202426</t>
@@ -58272,6 +58356,92 @@
       <c r="Q441" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>-45.500505015111735,166.718488189832</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-18 22:32:16+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>-45.50384050630765,166.71799524772578</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>-45.50315110309928,166.71830846596194</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-45.50114012789122,166.71810355099095</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>-45.50050011737912,166.71848174892256</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>-45.49789097335877,166.72141028770662</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>-45.49763282155295,166.7222834484701</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>-45.49826740086031,166.72507395908056</t>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q443"/>
+  <dimension ref="A1:Q445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21609,9 +21609,7 @@
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
-      <c r="F442" t="n">
-        <v>622.6966666666666</v>
-      </c>
+      <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr"/>
@@ -21620,7 +21618,9 @@
       <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr"/>
-      <c r="O442" t="inlineStr"/>
+      <c r="O442" t="n">
+        <v>655.01</v>
+      </c>
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="inlineStr">
         <is>
@@ -21641,12 +21641,8 @@
         <v>426.5707692307692</v>
       </c>
       <c r="D443" t="inlineStr"/>
-      <c r="E443" t="n">
-        <v>594.7963636363636</v>
-      </c>
-      <c r="F443" t="n">
-        <v>623.4400000000001</v>
-      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr"/>
@@ -21664,6 +21660,82 @@
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr"/>
       <c r="Q443" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="n">
+        <v>631.39</v>
+      </c>
+      <c r="P444" t="inlineStr"/>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:26:30+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="C445" t="n">
+        <v>382.9307692307692</v>
+      </c>
+      <c r="D445" t="n">
+        <v>398.8418181818182</v>
+      </c>
+      <c r="E445" t="n">
+        <v>393.0418181818182</v>
+      </c>
+      <c r="F445" t="n">
+        <v>382.8466666666667</v>
+      </c>
+      <c r="G445" t="n">
+        <v>382.6166666666667</v>
+      </c>
+      <c r="H445" t="n">
+        <v>385.6466666666667</v>
+      </c>
+      <c r="I445" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="J445" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21680,7 +21752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26668,6 +26740,26 @@
       </c>
       <c r="B498" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -26841,28 +26933,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.306931231387871</v>
+        <v>-0.3008902757496973</v>
       </c>
       <c r="J2" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02805885227079907</v>
+        <v>0.02712547239137819</v>
       </c>
       <c r="M2" t="n">
-        <v>10.47196018994778</v>
+        <v>10.47357688849872</v>
       </c>
       <c r="N2" t="n">
-        <v>180.0015767790724</v>
+        <v>179.7217319851049</v>
       </c>
       <c r="O2" t="n">
-        <v>13.41646662795657</v>
+        <v>13.40603341727541</v>
       </c>
       <c r="P2" t="n">
-        <v>378.190603941227</v>
+        <v>378.1315829159338</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26919,28 +27011,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1245284592039381</v>
+        <v>-0.1207678959096704</v>
       </c>
       <c r="J3" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00437346819728146</v>
+        <v>0.004138447143963053</v>
       </c>
       <c r="M3" t="n">
-        <v>10.64367563331429</v>
+        <v>10.63071057707676</v>
       </c>
       <c r="N3" t="n">
-        <v>195.39060078573</v>
+        <v>194.8931435197655</v>
       </c>
       <c r="O3" t="n">
-        <v>13.97821879875008</v>
+        <v>13.960413443726</v>
       </c>
       <c r="P3" t="n">
-        <v>379.9095681499556</v>
+        <v>379.8728835257032</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26997,28 +27089,28 @@
         <v>0.0653</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4451099828773001</v>
+        <v>-0.4315665245757767</v>
       </c>
       <c r="J4" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K4" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05902212162098019</v>
+        <v>0.05557829131981085</v>
       </c>
       <c r="M4" t="n">
-        <v>10.3577914434408</v>
+        <v>10.39681045579935</v>
       </c>
       <c r="N4" t="n">
-        <v>175.5731115081526</v>
+        <v>176.5444879780815</v>
       </c>
       <c r="O4" t="n">
-        <v>13.25040042821924</v>
+        <v>13.2870044772357</v>
       </c>
       <c r="P4" t="n">
-        <v>388.1205087830421</v>
+        <v>387.9903574500002</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27075,28 +27167,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2145131847632446</v>
+        <v>-0.3412031850756963</v>
       </c>
       <c r="J5" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K5" t="n">
         <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008257569467147952</v>
+        <v>0.03833713295703922</v>
       </c>
       <c r="M5" t="n">
-        <v>10.61333945116114</v>
+        <v>9.928314238175108</v>
       </c>
       <c r="N5" t="n">
-        <v>304.7562648773762</v>
+        <v>161.0515234195104</v>
       </c>
       <c r="O5" t="n">
-        <v>17.45726968564604</v>
+        <v>12.69060768519421</v>
       </c>
       <c r="P5" t="n">
-        <v>385.3849019554407</v>
+        <v>386.5780501400568</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27153,28 +27245,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006288314949168889</v>
+        <v>-0.2888506776764267</v>
       </c>
       <c r="J6" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L6" t="n">
-        <v>4.19689133979162e-06</v>
+        <v>0.02862575176229076</v>
       </c>
       <c r="M6" t="n">
-        <v>11.34682518317819</v>
+        <v>9.513561536511276</v>
       </c>
       <c r="N6" t="n">
-        <v>517.2160060954484</v>
+        <v>154.8898595191081</v>
       </c>
       <c r="O6" t="n">
-        <v>22.74238347437331</v>
+        <v>12.44547546376225</v>
       </c>
       <c r="P6" t="n">
-        <v>383.1825652011165</v>
+        <v>386.0295612984384</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27231,28 +27323,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1778984127674269</v>
+        <v>-0.1762630884586812</v>
       </c>
       <c r="J7" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K7" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009214943419159627</v>
+        <v>0.009106355322211823</v>
       </c>
       <c r="M7" t="n">
-        <v>10.16305730697292</v>
+        <v>10.13993524916717</v>
       </c>
       <c r="N7" t="n">
-        <v>183.9230743340646</v>
+        <v>183.375474715756</v>
       </c>
       <c r="O7" t="n">
-        <v>13.56182415215832</v>
+        <v>13.54162009198884</v>
       </c>
       <c r="P7" t="n">
-        <v>384.5043080814693</v>
+        <v>384.4882542692278</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27309,28 +27401,28 @@
         <v>0.0799</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05049090019504846</v>
+        <v>-0.04654302281566879</v>
       </c>
       <c r="J8" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008037858849205826</v>
+        <v>0.0006870503868153799</v>
       </c>
       <c r="M8" t="n">
-        <v>10.48442731612896</v>
+        <v>10.47046872146876</v>
       </c>
       <c r="N8" t="n">
-        <v>169.4875301860098</v>
+        <v>169.0734270240552</v>
       </c>
       <c r="O8" t="n">
-        <v>13.01873765716207</v>
+        <v>13.00282380962133</v>
       </c>
       <c r="P8" t="n">
-        <v>380.594228567342</v>
+        <v>380.5546617489003</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27387,28 +27479,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1012964207160564</v>
+        <v>-0.09767519232197837</v>
       </c>
       <c r="J9" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K9" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002643288809151323</v>
+        <v>0.00247272746707794</v>
       </c>
       <c r="M9" t="n">
-        <v>11.37953219165564</v>
+        <v>11.36260433886108</v>
       </c>
       <c r="N9" t="n">
-        <v>208.807350696922</v>
+        <v>208.2782983440158</v>
       </c>
       <c r="O9" t="n">
-        <v>14.45016784320937</v>
+        <v>14.43185013586324</v>
       </c>
       <c r="P9" t="n">
-        <v>374.2214362469316</v>
+        <v>374.1856889982349</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27465,28 +27557,28 @@
         <v>0.0623</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5344481686334492</v>
+        <v>-0.5459384847814124</v>
       </c>
       <c r="J10" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K10" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06441288852377303</v>
+        <v>0.06712458071493121</v>
       </c>
       <c r="M10" t="n">
-        <v>11.59583792592317</v>
+        <v>11.61269044327028</v>
       </c>
       <c r="N10" t="n">
-        <v>219.7539536632906</v>
+        <v>220.1304405870156</v>
       </c>
       <c r="O10" t="n">
-        <v>14.82410043352684</v>
+        <v>14.83679347389508</v>
       </c>
       <c r="P10" t="n">
-        <v>376.4089235018526</v>
+        <v>376.5250636904481</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27543,28 +27635,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5393873901695365</v>
+        <v>-0.5081121645167006</v>
       </c>
       <c r="J11" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K11" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06610438934765328</v>
+        <v>0.05770621878314608</v>
       </c>
       <c r="M11" t="n">
-        <v>11.3053116177826</v>
+        <v>11.41552623989479</v>
       </c>
       <c r="N11" t="n">
-        <v>213.4501773745119</v>
+        <v>219.7797619587591</v>
       </c>
       <c r="O11" t="n">
-        <v>14.60993420158051</v>
+        <v>14.82497089234104</v>
       </c>
       <c r="P11" t="n">
-        <v>377.1661799638717</v>
+        <v>376.8507783360806</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27624,7 +27716,7 @@
         <v>-0.51986477168637</v>
       </c>
       <c r="J12" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K12" t="n">
         <v>296</v>
@@ -27702,7 +27794,7 @@
         <v>-0.3725435717697269</v>
       </c>
       <c r="J13" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K13" t="n">
         <v>302</v>
@@ -27780,7 +27872,7 @@
         <v>-0.4379033341186126</v>
       </c>
       <c r="J14" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K14" t="n">
         <v>297</v>
@@ -27855,28 +27947,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2381253020441138</v>
+        <v>0.1142670267225398</v>
       </c>
       <c r="J15" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K15" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01141788775338615</v>
+        <v>0.0009700926313233049</v>
       </c>
       <c r="M15" t="n">
-        <v>12.87339258113824</v>
+        <v>14.70893926753427</v>
       </c>
       <c r="N15" t="n">
-        <v>257.2650986861678</v>
+        <v>709.9231324382232</v>
       </c>
       <c r="O15" t="n">
-        <v>16.03948561164503</v>
+        <v>26.64438275581221</v>
       </c>
       <c r="P15" t="n">
-        <v>388.7927233693642</v>
+        <v>385.2541253441252</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27936,7 +28028,7 @@
         <v>-0.5458709709139139</v>
       </c>
       <c r="J16" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K16" t="n">
         <v>263</v>
@@ -27992,7 +28084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q443"/>
+  <dimension ref="A1:Q445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30173,7 +30265,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-45.50401577020388,166.71822574829795</t>
+          <t>-45.50401577020387,166.71822574829795</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -32853,7 +32945,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>-45.49920824235508,166.72388835616798</t>
+          <t>-45.49920824235509,166.72388835616798</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -33415,7 +33507,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-45.503842878302855,166.71799836727283</t>
+          <t>-45.50384287830286,166.71799836727283</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -41507,7 +41599,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-45.50213750229949,166.7206351255991</t>
+          <t>-45.50213750229948,166.7206351255991</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -56090,7 +56182,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>-45.5030842262523,166.71944040993958</t>
+          <t>-45.50308422625229,166.71944040993958</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -56105,7 +56197,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>-45.5016782950269,166.72123897991844</t>
+          <t>-45.50167829502689,166.72123897991844</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -56878,7 +56970,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>-45.49975225331219,166.72343009567305</t>
+          <t>-45.499752253312195,166.72343009567305</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -58211,7 +58303,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>-45.4998550304018,166.72362101173718</t>
+          <t>-45.49985503040179,166.72362101173718</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -58369,11 +58461,7 @@
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>-45.500505015111735,166.718488189832</t>
-        </is>
-      </c>
+      <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr"/>
@@ -58382,7 +58470,11 @@
       <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr"/>
-      <c r="O442" t="inlineStr"/>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>-45.49616921081874,166.72231540838817</t>
+        </is>
+      </c>
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="inlineStr">
         <is>
@@ -58407,16 +58499,8 @@
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>-45.50114012789122,166.71810355099095</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>-45.50050011737912,166.71848174892256</t>
-        </is>
-      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr"/>
@@ -58445,6 +58529,104 @@
         </is>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>-45.499509765897194,166.7229796622434</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>-45.49628933964031,166.72256375283615</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr"/>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:26:30+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>-45.50390889880725,166.71808519477133</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>-45.503438640593735,166.71868662270353</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-45.50288252486338,166.7191751383071</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-45.50246945587992,166.7198517886216</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>-45.502085341425364,166.72056652456172</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>-45.501640288707556,166.72118704235388</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>-45.50117818942112,166.72172413003972</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>-45.500722484012016,166.72228723269646</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>-45.50038518246611,166.72313323422117</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q445"/>
+  <dimension ref="A1:Q446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21741,6 +21741,49 @@
         </is>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>384.68</v>
+      </c>
+      <c r="C446" t="n">
+        <v>390.5392307692308</v>
+      </c>
+      <c r="D446" t="n">
+        <v>407.6254545454545</v>
+      </c>
+      <c r="E446" t="n">
+        <v>395.8154545454545</v>
+      </c>
+      <c r="F446" t="n">
+        <v>384.1566666666667</v>
+      </c>
+      <c r="G446" t="n">
+        <v>382.2066666666667</v>
+      </c>
+      <c r="H446" t="n">
+        <v>382.5966666666667</v>
+      </c>
+      <c r="I446" t="n">
+        <v>369.18</v>
+      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21752,7 +21795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26760,6 +26803,16 @@
       </c>
       <c r="B500" t="n">
         <v>0.34</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -26933,28 +26986,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3008902757496973</v>
+        <v>-0.2920954161432588</v>
       </c>
       <c r="J2" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02712547239137819</v>
+        <v>0.0256771800836304</v>
       </c>
       <c r="M2" t="n">
-        <v>10.47357688849872</v>
+        <v>10.4912201940479</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7217319851049</v>
+        <v>179.7915274100905</v>
       </c>
       <c r="O2" t="n">
-        <v>13.40603341727541</v>
+        <v>13.40863629941876</v>
       </c>
       <c r="P2" t="n">
-        <v>378.1315829159338</v>
+        <v>378.045561688006</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27011,28 +27064,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1207678959096704</v>
+        <v>-0.1124968581047971</v>
       </c>
       <c r="J3" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004138447143963053</v>
+        <v>0.003605083681201937</v>
       </c>
       <c r="M3" t="n">
-        <v>10.63071057707676</v>
+        <v>10.64285475660841</v>
       </c>
       <c r="N3" t="n">
-        <v>194.8931435197655</v>
+        <v>194.8700534277558</v>
       </c>
       <c r="O3" t="n">
-        <v>13.960413443726</v>
+        <v>13.95958643469626</v>
       </c>
       <c r="P3" t="n">
-        <v>379.8728835257032</v>
+        <v>379.7921099199909</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27089,28 +27142,28 @@
         <v>0.0653</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4315665245757767</v>
+        <v>-0.4129170594832092</v>
       </c>
       <c r="J4" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05557829131981085</v>
+        <v>0.05064322888359529</v>
       </c>
       <c r="M4" t="n">
-        <v>10.39681045579935</v>
+        <v>10.46365377166754</v>
       </c>
       <c r="N4" t="n">
-        <v>176.5444879780815</v>
+        <v>178.9160198248686</v>
       </c>
       <c r="O4" t="n">
-        <v>13.2870044772357</v>
+        <v>13.37594930555841</v>
       </c>
       <c r="P4" t="n">
-        <v>387.9903574500002</v>
+        <v>387.8109451198182</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27167,28 +27220,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3412031850756963</v>
+        <v>-0.3299303839579732</v>
       </c>
       <c r="J5" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K5" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03833713295703922</v>
+        <v>0.03596868983811108</v>
       </c>
       <c r="M5" t="n">
-        <v>9.928314238175108</v>
+        <v>9.95491178649536</v>
       </c>
       <c r="N5" t="n">
-        <v>161.0515234195104</v>
+        <v>161.5423473134662</v>
       </c>
       <c r="O5" t="n">
-        <v>12.69060768519421</v>
+        <v>12.70993105069678</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5780501400568</v>
+        <v>386.4714174523504</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27245,28 +27298,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2888506776764267</v>
+        <v>-0.2854522877738214</v>
       </c>
       <c r="J6" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K6" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02862575176229076</v>
+        <v>0.02814215256718711</v>
       </c>
       <c r="M6" t="n">
-        <v>9.513561536511276</v>
+        <v>9.502574273912813</v>
       </c>
       <c r="N6" t="n">
-        <v>154.8898595191081</v>
+        <v>154.5040770523404</v>
       </c>
       <c r="O6" t="n">
-        <v>12.44547546376225</v>
+        <v>12.42996689667114</v>
       </c>
       <c r="P6" t="n">
-        <v>386.0295612984384</v>
+        <v>385.9966227165568</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27323,28 +27376,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1762630884586812</v>
+        <v>-0.174902954387411</v>
       </c>
       <c r="J7" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K7" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009106355322211823</v>
+        <v>0.009025426599457265</v>
       </c>
       <c r="M7" t="n">
-        <v>10.13993524916717</v>
+        <v>10.11554214467118</v>
       </c>
       <c r="N7" t="n">
-        <v>183.375474715756</v>
+        <v>182.8247819790994</v>
       </c>
       <c r="O7" t="n">
-        <v>13.54162009198884</v>
+        <v>13.5212714631095</v>
       </c>
       <c r="P7" t="n">
-        <v>384.4882542692278</v>
+        <v>384.4748879897572</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27401,28 +27454,28 @@
         <v>0.0799</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04654302281566879</v>
+        <v>-0.04454560472439559</v>
       </c>
       <c r="J8" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K8" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006870503868153799</v>
+        <v>0.0006333512697472843</v>
       </c>
       <c r="M8" t="n">
-        <v>10.47046872146876</v>
+        <v>10.44707228847181</v>
       </c>
       <c r="N8" t="n">
-        <v>169.0734270240552</v>
+        <v>168.5679814882673</v>
       </c>
       <c r="O8" t="n">
-        <v>13.00282380962133</v>
+        <v>12.98337327077472</v>
       </c>
       <c r="P8" t="n">
-        <v>380.5546617489003</v>
+        <v>380.5346215682763</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27479,28 +27532,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09767519232197837</v>
+        <v>-0.09917121388148528</v>
       </c>
       <c r="J9" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K9" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00247272746707794</v>
+        <v>0.002564962835071127</v>
       </c>
       <c r="M9" t="n">
-        <v>11.36260433886108</v>
+        <v>11.33573102749489</v>
       </c>
       <c r="N9" t="n">
-        <v>208.2782983440158</v>
+        <v>207.6622148191049</v>
       </c>
       <c r="O9" t="n">
-        <v>14.43185013586324</v>
+        <v>14.41048974945352</v>
       </c>
       <c r="P9" t="n">
-        <v>374.1856889982349</v>
+        <v>374.2004726741699</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27560,7 +27613,7 @@
         <v>-0.5459384847814124</v>
       </c>
       <c r="J10" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K10" t="n">
         <v>314</v>
@@ -27638,7 +27691,7 @@
         <v>-0.5081121645167006</v>
       </c>
       <c r="J11" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K11" t="n">
         <v>299</v>
@@ -27716,7 +27769,7 @@
         <v>-0.51986477168637</v>
       </c>
       <c r="J12" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K12" t="n">
         <v>296</v>
@@ -27794,7 +27847,7 @@
         <v>-0.3725435717697269</v>
       </c>
       <c r="J13" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K13" t="n">
         <v>302</v>
@@ -27872,7 +27925,7 @@
         <v>-0.4379033341186126</v>
       </c>
       <c r="J14" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K14" t="n">
         <v>297</v>
@@ -27950,7 +28003,7 @@
         <v>0.1142670267225398</v>
       </c>
       <c r="J15" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K15" t="n">
         <v>293</v>
@@ -28028,7 +28081,7 @@
         <v>-0.5458709709139139</v>
       </c>
       <c r="J16" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K16" t="n">
         <v>263</v>
@@ -28084,7 +28137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q445"/>
+  <dimension ref="A1:Q446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58627,6 +58680,65 @@
         </is>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>-45.50387839233364,166.71804507385608</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>-45.50338850964424,166.71862069229294</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>-45.50282465107161,166.71909902490404</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>-45.50245118099329,166.71982775403046</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>-45.502076710169995,166.72055517290755</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>-45.501642941816776,166.72119066795912</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>-45.501196231409914,166.72175340254486</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>-45.500768636179465,166.7223729630719</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q446"/>
+  <dimension ref="A1:Q450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21648,12 +21648,8 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="n">
-        <v>613.1863636363636</v>
-      </c>
-      <c r="M443" t="n">
-        <v>571.9433333333334</v>
-      </c>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
       <c r="N443" t="n">
         <v>348.02</v>
       </c>
@@ -21784,6 +21780,194 @@
         </is>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-05 22:32:28+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>391.0100000000001</v>
+      </c>
+      <c r="C447" t="n">
+        <v>396.15</v>
+      </c>
+      <c r="D447" t="n">
+        <v>407.1636363636364</v>
+      </c>
+      <c r="E447" t="n">
+        <v>395.1236363636364</v>
+      </c>
+      <c r="F447" t="n">
+        <v>381.2566666666667</v>
+      </c>
+      <c r="G447" t="n">
+        <v>379.9466666666667</v>
+      </c>
+      <c r="H447" t="n">
+        <v>396.0366666666667</v>
+      </c>
+      <c r="I447" t="n">
+        <v>387.09</v>
+      </c>
+      <c r="J447" t="n">
+        <v>366.17</v>
+      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-06 22:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>389.15</v>
+      </c>
+      <c r="C448" t="n">
+        <v>397.1146153846154</v>
+      </c>
+      <c r="D448" t="n">
+        <v>397.3136363636364</v>
+      </c>
+      <c r="E448" t="n">
+        <v>392.2136363636364</v>
+      </c>
+      <c r="F448" t="n">
+        <v>376.8233333333333</v>
+      </c>
+      <c r="G448" t="n">
+        <v>376.7733333333333</v>
+      </c>
+      <c r="H448" t="n">
+        <v>389.8533333333333</v>
+      </c>
+      <c r="I448" t="n">
+        <v>380.07</v>
+      </c>
+      <c r="J448" t="n">
+        <v>344.9</v>
+      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="inlineStr"/>
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-13 22:32:57+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>379.85</v>
+      </c>
+      <c r="C449" t="n">
+        <v>385.6430769230769</v>
+      </c>
+      <c r="D449" t="n">
+        <v>392.3272727272728</v>
+      </c>
+      <c r="E449" t="n">
+        <v>377.6372727272728</v>
+      </c>
+      <c r="F449" t="n">
+        <v>368.8433333333333</v>
+      </c>
+      <c r="G449" t="n">
+        <v>374.3133333333333</v>
+      </c>
+      <c r="H449" t="n">
+        <v>383.4533333333333</v>
+      </c>
+      <c r="I449" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="J449" t="n">
+        <v>369.58</v>
+      </c>
+      <c r="K449" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="L449" t="n">
+        <v>332.1072727272727</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr"/>
+      <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-21 22:32:36+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>375.19</v>
+      </c>
+      <c r="C450" t="n">
+        <v>391.4530769230769</v>
+      </c>
+      <c r="D450" t="n">
+        <v>389.9054545454546</v>
+      </c>
+      <c r="E450" t="n">
+        <v>382.2954545454546</v>
+      </c>
+      <c r="F450" t="n">
+        <v>373.5766666666667</v>
+      </c>
+      <c r="G450" t="n">
+        <v>377.2666666666667</v>
+      </c>
+      <c r="H450" t="n">
+        <v>376.8866666666667</v>
+      </c>
+      <c r="I450" t="n">
+        <v>370.73</v>
+      </c>
+      <c r="J450" t="n">
+        <v>370.5700000000001</v>
+      </c>
+      <c r="K450" t="n">
+        <v>374.54</v>
+      </c>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="n">
+        <v>374.6688888888889</v>
+      </c>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21795,7 +21979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26813,6 +26997,46 @@
       </c>
       <c r="B501" t="n">
         <v>-0.08</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-07-05 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-07-06 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-07-13 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-07-21 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -26986,28 +27210,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2920954161432588</v>
+        <v>-0.2604812106253045</v>
       </c>
       <c r="J2" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0256771800836304</v>
+        <v>0.02074463998921461</v>
       </c>
       <c r="M2" t="n">
-        <v>10.4912201940479</v>
+        <v>10.53930694014301</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7915274100905</v>
+        <v>180.1971046707374</v>
       </c>
       <c r="O2" t="n">
-        <v>13.40863629941876</v>
+        <v>13.42375151255183</v>
       </c>
       <c r="P2" t="n">
-        <v>378.045561688006</v>
+        <v>377.7355822859687</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27064,28 +27288,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1124968581047971</v>
+        <v>-0.07598837289939875</v>
       </c>
       <c r="J3" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K3" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003605083681201937</v>
+        <v>0.001662320236996973</v>
       </c>
       <c r="M3" t="n">
-        <v>10.64285475660841</v>
+        <v>10.71268529131329</v>
       </c>
       <c r="N3" t="n">
-        <v>194.8700534277558</v>
+        <v>195.6526042929956</v>
       </c>
       <c r="O3" t="n">
-        <v>13.95958643469626</v>
+        <v>13.98758750796561</v>
       </c>
       <c r="P3" t="n">
-        <v>379.7921099199909</v>
+        <v>379.4345854573324</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27142,28 +27366,28 @@
         <v>0.0653</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4129170594832092</v>
+        <v>-0.3671541944423957</v>
       </c>
       <c r="J4" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K4" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05064322888359529</v>
+        <v>0.04038145282389249</v>
       </c>
       <c r="M4" t="n">
-        <v>10.46365377166754</v>
+        <v>10.57443919840999</v>
       </c>
       <c r="N4" t="n">
-        <v>178.9160198248686</v>
+        <v>181.7606810318317</v>
       </c>
       <c r="O4" t="n">
-        <v>13.37594930555841</v>
+        <v>13.48186489443622</v>
       </c>
       <c r="P4" t="n">
-        <v>387.8109451198182</v>
+        <v>387.3695479247603</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27220,28 +27444,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3299303839579732</v>
+        <v>-0.3085897979997193</v>
       </c>
       <c r="J5" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K5" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03596868983811108</v>
+        <v>0.03217087982831368</v>
       </c>
       <c r="M5" t="n">
-        <v>9.95491178649536</v>
+        <v>9.945513755918725</v>
       </c>
       <c r="N5" t="n">
-        <v>161.5423473134662</v>
+        <v>161.1016828643305</v>
       </c>
       <c r="O5" t="n">
-        <v>12.70993105069678</v>
+        <v>12.69258377417027</v>
       </c>
       <c r="P5" t="n">
-        <v>386.4714174523504</v>
+        <v>386.2691147812359</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27298,28 +27522,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2854522877738214</v>
+        <v>-0.2938773654747548</v>
       </c>
       <c r="J6" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02814215256718711</v>
+        <v>0.03047258712141077</v>
       </c>
       <c r="M6" t="n">
-        <v>9.502574273912813</v>
+        <v>9.441597913539399</v>
       </c>
       <c r="N6" t="n">
-        <v>154.5040770523404</v>
+        <v>153.0129593773855</v>
       </c>
       <c r="O6" t="n">
-        <v>12.42996689667114</v>
+        <v>12.36984071754303</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9966227165568</v>
+        <v>386.0785640113486</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27376,28 +27600,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.174902954387411</v>
+        <v>-0.1817529218258815</v>
       </c>
       <c r="J7" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K7" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009025426599457265</v>
+        <v>0.009982442032873684</v>
       </c>
       <c r="M7" t="n">
-        <v>10.11554214467118</v>
+        <v>10.02673106731383</v>
       </c>
       <c r="N7" t="n">
-        <v>182.8247819790994</v>
+        <v>180.7431584482158</v>
       </c>
       <c r="O7" t="n">
-        <v>13.5212714631095</v>
+        <v>13.4440752172924</v>
       </c>
       <c r="P7" t="n">
-        <v>384.4748879897572</v>
+        <v>384.5424063720209</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27454,28 +27678,28 @@
         <v>0.0799</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04454560472439559</v>
+        <v>-0.0274378984165349</v>
       </c>
       <c r="J8" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K8" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006333512697472843</v>
+        <v>0.0002447148526526499</v>
       </c>
       <c r="M8" t="n">
-        <v>10.44707228847181</v>
+        <v>10.41753888633619</v>
       </c>
       <c r="N8" t="n">
-        <v>168.5679814882673</v>
+        <v>167.7106687532715</v>
       </c>
       <c r="O8" t="n">
-        <v>12.98337327077472</v>
+        <v>12.95031539203859</v>
       </c>
       <c r="P8" t="n">
-        <v>380.5346215682763</v>
+        <v>380.3626365654829</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27532,28 +27756,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09917121388148528</v>
+        <v>-0.08490130322441058</v>
       </c>
       <c r="J9" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K9" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002564962835071127</v>
+        <v>0.001920303102270093</v>
       </c>
       <c r="M9" t="n">
-        <v>11.33573102749489</v>
+        <v>11.27663565390991</v>
       </c>
       <c r="N9" t="n">
-        <v>207.6622148191049</v>
+        <v>206.0862121815547</v>
       </c>
       <c r="O9" t="n">
-        <v>14.41048974945352</v>
+        <v>14.35570312390008</v>
       </c>
       <c r="P9" t="n">
-        <v>374.2004726741699</v>
+        <v>374.0591763116118</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27610,28 +27834,28 @@
         <v>0.0623</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5459384847814124</v>
+        <v>-0.5451802127419136</v>
       </c>
       <c r="J10" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K10" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06712458071493121</v>
+        <v>0.06816229568431609</v>
       </c>
       <c r="M10" t="n">
-        <v>11.61269044327028</v>
+        <v>11.58140226546639</v>
       </c>
       <c r="N10" t="n">
-        <v>220.1304405870156</v>
+        <v>218.7418265680359</v>
       </c>
       <c r="O10" t="n">
-        <v>14.83679347389508</v>
+        <v>14.78992314273593</v>
       </c>
       <c r="P10" t="n">
-        <v>376.5250636904481</v>
+        <v>376.5172355781795</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27688,28 +27912,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5081121645167006</v>
+        <v>-0.4965664523547295</v>
       </c>
       <c r="J11" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K11" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05770621878314608</v>
+        <v>0.05589206530678159</v>
       </c>
       <c r="M11" t="n">
-        <v>11.41552623989479</v>
+        <v>11.39395331201098</v>
       </c>
       <c r="N11" t="n">
-        <v>219.7797619587591</v>
+        <v>218.8313735584948</v>
       </c>
       <c r="O11" t="n">
-        <v>14.82497089234104</v>
+        <v>14.79295013033218</v>
       </c>
       <c r="P11" t="n">
-        <v>376.8507783360806</v>
+        <v>376.7337007802873</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27766,28 +27990,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.51986477168637</v>
+        <v>-0.7135419519883135</v>
       </c>
       <c r="J12" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K12" t="n">
         <v>296</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03349846190690642</v>
+        <v>0.1151480828249097</v>
       </c>
       <c r="M12" t="n">
-        <v>12.10507531974401</v>
+        <v>11.37963340268237</v>
       </c>
       <c r="N12" t="n">
-        <v>409.8529408867967</v>
+        <v>205.6907677734034</v>
       </c>
       <c r="O12" t="n">
-        <v>20.2448250396687</v>
+        <v>14.3419234335358</v>
       </c>
       <c r="P12" t="n">
-        <v>379.9461621045235</v>
+        <v>381.8694134901684</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27844,28 +28068,28 @@
         <v>0.0574</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3725435717697269</v>
+        <v>-0.5017254942296735</v>
       </c>
       <c r="J13" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K13" t="n">
         <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02029362526049561</v>
+        <v>0.05646584906181895</v>
       </c>
       <c r="M13" t="n">
-        <v>12.19289645227224</v>
+        <v>11.51615659781349</v>
       </c>
       <c r="N13" t="n">
-        <v>358.7820725308788</v>
+        <v>225.2915719652288</v>
       </c>
       <c r="O13" t="n">
-        <v>18.94154356252095</v>
+        <v>15.00971591887164</v>
       </c>
       <c r="P13" t="n">
-        <v>381.6522927397531</v>
+        <v>382.9293688922463</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27925,7 +28149,7 @@
         <v>-0.4379033341186126</v>
       </c>
       <c r="J14" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K14" t="n">
         <v>297</v>
@@ -28003,7 +28227,7 @@
         <v>0.1142670267225398</v>
       </c>
       <c r="J15" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K15" t="n">
         <v>293</v>
@@ -28081,7 +28305,7 @@
         <v>-0.5458709709139139</v>
       </c>
       <c r="J16" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K16" t="n">
         <v>263</v>
@@ -28137,7 +28361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q446"/>
+  <dimension ref="A1:Q450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58559,16 +58783,8 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>-45.49789097335877,166.72141028770662</t>
-        </is>
-      </c>
-      <c r="M443" t="inlineStr">
-        <is>
-          <t>-45.49763282155295,166.7222834484701</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
       <c r="N443" t="inlineStr">
         <is>
           <t>-45.49826740086031,166.72507395908056</t>
@@ -58739,6 +58955,274 @@
         </is>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-05 22:32:28+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>-45.503836684759655,166.71799022178936</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>-45.503351541152675,166.71857207277287</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>-45.50282769390918,166.71910302672265</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>-45.502455739233206,166.71983374889098</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>-45.50209581752794,166.72058030252833</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>-45.501657566270666,166.72121065300874</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>-45.50111672830176,166.72162441171395</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>-45.500670930991106,166.722191470213</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>-45.500265602470584,166.72291110570285</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-06 22:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>-45.50384894006806,166.71800633944986</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>-45.503345185449184,166.71856371400793</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>-45.502892593772685,166.71918838057417</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>-45.502474912588944,166.71985896512825</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>-45.502125027617815,166.7206187191079</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>-45.501678100897045,166.7212387146299</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>-45.501153305268424,166.72168375640803</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>-45.50070922752778,166.7222626080407</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>-45.500381636532,166.7231266473671</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="inlineStr"/>
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-13 22:32:57+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>-45.50391021658123,166.7180869278572</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>-45.503420769631106,166.71866311944194</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>-45.502925447997704,166.71923158931304</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>-45.50257095300092,166.71998527502313</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>-45.50217760575203,166.72068786905123</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>-45.50169401954245,166.72126046829567</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>-45.50119116387929,166.72174518064804</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>-45.500745614656324,166.72233019920233</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>-45.50024699989099,166.72287655021265</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>-45.49972394046518,166.72337750267877</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>-45.49941207025497,166.72427181930655</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr"/>
+      <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-21 22:32:36+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>-45.503940920708416,166.71812730878082</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>-45.503382488454314,166.7186127734526</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>-45.50294140490345,166.71925257530756</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>-45.50254026129176,166.71994491000814</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>-45.50214641906016,166.7206468527786</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>-45.50167490853955,166.72123435210764</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>-45.501230008361404,166.72180820456458</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>-45.500760180408406,166.72235725595925</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>-45.50024159914033,166.7228665179779</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>-45.49970048279134,166.72333392856262</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>-45.49866411550676,166.72432976467348</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q450"/>
+  <dimension ref="A1:Q451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21602,11 +21602,15 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>2025-05-11 22:26:34+00:00</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr"/>
-      <c r="C442" t="inlineStr"/>
+          <t>2025-05-18 22:32:16+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>390.43</v>
+      </c>
+      <c r="C442" t="n">
+        <v>426.5707692307692</v>
+      </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
@@ -21617,10 +21621,10 @@
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
-      <c r="N442" t="inlineStr"/>
-      <c r="O442" t="n">
-        <v>655.01</v>
-      </c>
+      <c r="N442" t="n">
+        <v>348.02</v>
+      </c>
+      <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="inlineStr">
         <is>
@@ -21631,15 +21635,11 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>2025-05-18 22:32:16+00:00</t>
-        </is>
-      </c>
-      <c r="B443" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C443" t="n">
-        <v>426.5707692307692</v>
-      </c>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
@@ -21647,84 +21647,96 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>409.5</v>
+      </c>
       <c r="L443" t="inlineStr"/>
       <c r="M443" t="inlineStr"/>
-      <c r="N443" t="n">
-        <v>348.02</v>
-      </c>
+      <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr"/>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04 22:26:25+00:00</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr"/>
-      <c r="C444" t="inlineStr"/>
-      <c r="D444" t="inlineStr"/>
-      <c r="E444" t="inlineStr"/>
-      <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr"/>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>409.5</v>
-      </c>
+          <t>2025-06-12 22:26:30+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="C444" t="n">
+        <v>382.9307692307692</v>
+      </c>
+      <c r="D444" t="n">
+        <v>398.8418181818182</v>
+      </c>
+      <c r="E444" t="n">
+        <v>393.0418181818182</v>
+      </c>
+      <c r="F444" t="n">
+        <v>382.8466666666667</v>
+      </c>
+      <c r="G444" t="n">
+        <v>382.6166666666667</v>
+      </c>
+      <c r="H444" t="n">
+        <v>385.6466666666667</v>
+      </c>
+      <c r="I444" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="J444" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr"/>
       <c r="M444" t="inlineStr"/>
       <c r="N444" t="inlineStr"/>
-      <c r="O444" t="n">
-        <v>631.39</v>
-      </c>
+      <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr"/>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12 22:26:30+00:00</t>
+          <t>2025-06-20 22:26:40+00:00</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>380.05</v>
+        <v>384.68</v>
       </c>
       <c r="C445" t="n">
-        <v>382.9307692307692</v>
+        <v>390.5392307692308</v>
       </c>
       <c r="D445" t="n">
-        <v>398.8418181818182</v>
+        <v>407.6254545454545</v>
       </c>
       <c r="E445" t="n">
-        <v>393.0418181818182</v>
+        <v>395.8154545454545</v>
       </c>
       <c r="F445" t="n">
-        <v>382.8466666666667</v>
+        <v>384.1566666666667</v>
       </c>
       <c r="G445" t="n">
-        <v>382.6166666666667</v>
+        <v>382.2066666666667</v>
       </c>
       <c r="H445" t="n">
-        <v>385.6466666666667</v>
+        <v>382.5966666666667</v>
       </c>
       <c r="I445" t="n">
-        <v>377.64</v>
-      </c>
-      <c r="J445" t="n">
-        <v>344.25</v>
-      </c>
+        <v>369.18</v>
+      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr"/>
       <c r="M445" t="inlineStr"/>
@@ -21733,41 +21745,43 @@
       <c r="P445" t="inlineStr"/>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20 22:26:40+00:00</t>
+          <t>2025-07-05 22:32:28+00:00</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>384.68</v>
+        <v>391.0100000000001</v>
       </c>
       <c r="C446" t="n">
-        <v>390.5392307692308</v>
+        <v>396.15</v>
       </c>
       <c r="D446" t="n">
-        <v>407.6254545454545</v>
+        <v>407.1636363636364</v>
       </c>
       <c r="E446" t="n">
-        <v>395.8154545454545</v>
+        <v>395.1236363636364</v>
       </c>
       <c r="F446" t="n">
-        <v>384.1566666666667</v>
+        <v>381.2566666666667</v>
       </c>
       <c r="G446" t="n">
-        <v>382.2066666666667</v>
+        <v>379.9466666666667</v>
       </c>
       <c r="H446" t="n">
-        <v>382.5966666666667</v>
+        <v>396.0366666666667</v>
       </c>
       <c r="I446" t="n">
-        <v>369.18</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>387.09</v>
+      </c>
+      <c r="J446" t="n">
+        <v>366.17</v>
+      </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr"/>
       <c r="M446" t="inlineStr"/>
@@ -21776,42 +21790,42 @@
       <c r="P446" t="inlineStr"/>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>2025-07-05 22:32:28+00:00</t>
+          <t>2025-07-06 22:26:44+00:00</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>391.0100000000001</v>
+        <v>389.15</v>
       </c>
       <c r="C447" t="n">
-        <v>396.15</v>
+        <v>397.1146153846154</v>
       </c>
       <c r="D447" t="n">
-        <v>407.1636363636364</v>
+        <v>397.3136363636364</v>
       </c>
       <c r="E447" t="n">
-        <v>395.1236363636364</v>
+        <v>392.2136363636364</v>
       </c>
       <c r="F447" t="n">
-        <v>381.2566666666667</v>
+        <v>376.8233333333333</v>
       </c>
       <c r="G447" t="n">
-        <v>379.9466666666667</v>
+        <v>376.7733333333333</v>
       </c>
       <c r="H447" t="n">
-        <v>396.0366666666667</v>
+        <v>389.8533333333333</v>
       </c>
       <c r="I447" t="n">
-        <v>387.09</v>
+        <v>380.07</v>
       </c>
       <c r="J447" t="n">
-        <v>366.17</v>
+        <v>344.9</v>
       </c>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr"/>
@@ -21821,45 +21835,49 @@
       <c r="P447" t="inlineStr"/>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>2025-07-06 22:26:44+00:00</t>
+          <t>2025-07-13 22:32:57+00:00</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>389.15</v>
+        <v>379.85</v>
       </c>
       <c r="C448" t="n">
-        <v>397.1146153846154</v>
+        <v>385.6430769230769</v>
       </c>
       <c r="D448" t="n">
-        <v>397.3136363636364</v>
+        <v>392.3272727272728</v>
       </c>
       <c r="E448" t="n">
-        <v>392.2136363636364</v>
+        <v>377.6372727272728</v>
       </c>
       <c r="F448" t="n">
-        <v>376.8233333333333</v>
+        <v>368.8433333333333</v>
       </c>
       <c r="G448" t="n">
-        <v>376.7733333333333</v>
+        <v>374.3133333333333</v>
       </c>
       <c r="H448" t="n">
-        <v>389.8533333333333</v>
+        <v>383.4533333333333</v>
       </c>
       <c r="I448" t="n">
-        <v>380.07</v>
+        <v>373.4</v>
       </c>
       <c r="J448" t="n">
-        <v>344.9</v>
-      </c>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+        <v>369.58</v>
+      </c>
+      <c r="K448" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="L448" t="n">
+        <v>332.1072727272727</v>
+      </c>
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr"/>
@@ -21873,96 +21891,153 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>2025-07-13 22:32:57+00:00</t>
+          <t>2025-07-21 22:32:36+00:00</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>379.85</v>
+        <v>375.19</v>
       </c>
       <c r="C449" t="n">
-        <v>385.6430769230769</v>
+        <v>391.4530769230769</v>
       </c>
       <c r="D449" t="n">
-        <v>392.3272727272728</v>
+        <v>389.9054545454546</v>
       </c>
       <c r="E449" t="n">
-        <v>377.6372727272728</v>
+        <v>382.2954545454546</v>
       </c>
       <c r="F449" t="n">
-        <v>368.8433333333333</v>
+        <v>373.5766666666667</v>
       </c>
       <c r="G449" t="n">
-        <v>374.3133333333333</v>
+        <v>377.2666666666667</v>
       </c>
       <c r="H449" t="n">
-        <v>383.4533333333333</v>
+        <v>376.8866666666667</v>
       </c>
       <c r="I449" t="n">
-        <v>373.4</v>
+        <v>370.73</v>
       </c>
       <c r="J449" t="n">
-        <v>369.58</v>
+        <v>370.5700000000001</v>
       </c>
       <c r="K449" t="n">
-        <v>370.24</v>
+        <v>374.54</v>
       </c>
       <c r="L449" t="n">
-        <v>332.1072727272727</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
+        <v>385.2654545454546</v>
+      </c>
+      <c r="M449" t="n">
+        <v>374.6688888888889</v>
+      </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr"/>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>2025-07-21 22:32:36+00:00</t>
+          <t>2025-07-22 22:26:50+00:00</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>375.19</v>
+        <v>383.58</v>
       </c>
       <c r="C450" t="n">
-        <v>391.4530769230769</v>
+        <v>397.4453846153846</v>
       </c>
       <c r="D450" t="n">
-        <v>389.9054545454546</v>
+        <v>398.2490909090909</v>
       </c>
       <c r="E450" t="n">
-        <v>382.2954545454546</v>
+        <v>389.2890909090909</v>
       </c>
       <c r="F450" t="n">
-        <v>373.5766666666667</v>
+        <v>375.9466666666667</v>
       </c>
       <c r="G450" t="n">
-        <v>377.2666666666667</v>
+        <v>383.9166666666667</v>
       </c>
       <c r="H450" t="n">
-        <v>376.8866666666667</v>
+        <v>383.6866666666667</v>
       </c>
       <c r="I450" t="n">
-        <v>370.73</v>
+        <v>376.32</v>
       </c>
       <c r="J450" t="n">
-        <v>370.5700000000001</v>
+        <v>373.86</v>
       </c>
       <c r="K450" t="n">
-        <v>374.54</v>
-      </c>
-      <c r="L450" t="inlineStr"/>
+        <v>379.56</v>
+      </c>
+      <c r="L450" t="n">
+        <v>377.949090909091</v>
+      </c>
       <c r="M450" t="n">
-        <v>374.6688888888889</v>
+        <v>339.6722222222222</v>
       </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr"/>
       <c r="Q450" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>390.99</v>
+      </c>
+      <c r="C451" t="n">
+        <v>410.5169230769231</v>
+      </c>
+      <c r="D451" t="n">
+        <v>400.2145454545454</v>
+      </c>
+      <c r="E451" t="n">
+        <v>387.1545454545454</v>
+      </c>
+      <c r="F451" t="n">
+        <v>377.8333333333333</v>
+      </c>
+      <c r="G451" t="n">
+        <v>384.0633333333333</v>
+      </c>
+      <c r="H451" t="n">
+        <v>382.7333333333333</v>
+      </c>
+      <c r="I451" t="n">
+        <v>379.48</v>
+      </c>
+      <c r="J451" t="n">
+        <v>372.54</v>
+      </c>
+      <c r="K451" t="n">
+        <v>369.85</v>
+      </c>
+      <c r="L451" t="n">
+        <v>378.7345454545454</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+      <c r="N451" t="n">
+        <v>383.1</v>
+      </c>
+      <c r="O451" t="n">
+        <v>297.33</v>
+      </c>
+      <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21979,7 +22054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27037,6 +27112,26 @@
       </c>
       <c r="B505" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -27210,28 +27305,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2604812106253045</v>
+        <v>-0.2413743899234227</v>
       </c>
       <c r="J2" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02074463998921461</v>
+        <v>0.01791652335641736</v>
       </c>
       <c r="M2" t="n">
-        <v>10.53930694014301</v>
+        <v>10.58273818286702</v>
       </c>
       <c r="N2" t="n">
-        <v>180.1971046707374</v>
+        <v>180.7838664242229</v>
       </c>
       <c r="O2" t="n">
-        <v>13.42375151255183</v>
+        <v>13.44558910662612</v>
       </c>
       <c r="P2" t="n">
-        <v>377.7355822859687</v>
+        <v>377.5477429827943</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27288,28 +27383,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07598837289939875</v>
+        <v>-0.04558166266591648</v>
       </c>
       <c r="J3" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K3" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001662320236996973</v>
+        <v>0.0005923224720749687</v>
       </c>
       <c r="M3" t="n">
-        <v>10.71268529131329</v>
+        <v>10.81732314164475</v>
       </c>
       <c r="N3" t="n">
-        <v>195.6526042929956</v>
+        <v>198.9751034464342</v>
       </c>
       <c r="O3" t="n">
-        <v>13.98758750796561</v>
+        <v>14.10585351711956</v>
       </c>
       <c r="P3" t="n">
-        <v>379.4345854573324</v>
+        <v>379.1361050934401</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27366,28 +27461,28 @@
         <v>0.0653</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3671541944423957</v>
+        <v>-0.3424774867343277</v>
       </c>
       <c r="J4" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04038145282389249</v>
+        <v>0.03523599334901195</v>
       </c>
       <c r="M4" t="n">
-        <v>10.57443919840999</v>
+        <v>10.64036730053396</v>
       </c>
       <c r="N4" t="n">
-        <v>181.7606810318317</v>
+        <v>183.3902817284423</v>
       </c>
       <c r="O4" t="n">
-        <v>13.48186489443622</v>
+        <v>13.54216680330154</v>
       </c>
       <c r="P4" t="n">
-        <v>387.3695479247603</v>
+        <v>387.1309813121498</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27444,28 +27539,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3085897979997193</v>
+        <v>-0.2968027814436413</v>
       </c>
       <c r="J5" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03217087982831368</v>
+        <v>0.03011639103961594</v>
       </c>
       <c r="M5" t="n">
-        <v>9.945513755918725</v>
+        <v>9.945601036053</v>
       </c>
       <c r="N5" t="n">
-        <v>161.1016828643305</v>
+        <v>160.7137412558406</v>
       </c>
       <c r="O5" t="n">
-        <v>12.69258377417027</v>
+        <v>12.67729234717889</v>
       </c>
       <c r="P5" t="n">
-        <v>386.2691147812359</v>
+        <v>386.157111769308</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27522,28 +27617,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2938773654747548</v>
+        <v>-0.2957821001646277</v>
       </c>
       <c r="J6" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03047258712141077</v>
+        <v>0.03123751498605876</v>
       </c>
       <c r="M6" t="n">
-        <v>9.441597913539399</v>
+        <v>9.39325586837864</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0129593773855</v>
+        <v>152.1040426543431</v>
       </c>
       <c r="O6" t="n">
-        <v>12.36984071754303</v>
+        <v>12.33304677094606</v>
       </c>
       <c r="P6" t="n">
-        <v>386.0785640113486</v>
+        <v>386.0971070256519</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27600,28 +27695,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1817529218258815</v>
+        <v>-0.1769679336633237</v>
       </c>
       <c r="J7" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009982442032873684</v>
+        <v>0.009581158248992749</v>
       </c>
       <c r="M7" t="n">
-        <v>10.02673106731383</v>
+        <v>9.99099223041817</v>
       </c>
       <c r="N7" t="n">
-        <v>180.7431584482158</v>
+        <v>179.7489417578688</v>
       </c>
       <c r="O7" t="n">
-        <v>13.4440752172924</v>
+        <v>13.40704821196183</v>
       </c>
       <c r="P7" t="n">
-        <v>384.5424063720209</v>
+        <v>384.4951584794077</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27678,28 +27773,28 @@
         <v>0.0799</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0274378984165349</v>
+        <v>-0.02325285846273764</v>
       </c>
       <c r="J8" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002447148526526499</v>
+        <v>0.0001778650896433476</v>
       </c>
       <c r="M8" t="n">
-        <v>10.41753888633619</v>
+        <v>10.37325332484381</v>
       </c>
       <c r="N8" t="n">
-        <v>167.7106687532715</v>
+        <v>166.7413522922068</v>
       </c>
       <c r="O8" t="n">
-        <v>12.95031539203859</v>
+        <v>12.91283672522064</v>
       </c>
       <c r="P8" t="n">
-        <v>380.3626365654829</v>
+        <v>380.3204459383334</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27756,28 +27851,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08490130322441058</v>
+        <v>-0.07802037292967359</v>
       </c>
       <c r="J9" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K9" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001920303102270093</v>
+        <v>0.001640180127365776</v>
       </c>
       <c r="M9" t="n">
-        <v>11.27663565390991</v>
+        <v>11.24387003205627</v>
       </c>
       <c r="N9" t="n">
-        <v>206.0862121815547</v>
+        <v>205.0805851288727</v>
       </c>
       <c r="O9" t="n">
-        <v>14.35570312390008</v>
+        <v>14.32063494154057</v>
       </c>
       <c r="P9" t="n">
-        <v>374.0591763116118</v>
+        <v>373.9908423597149</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27834,28 +27929,28 @@
         <v>0.0623</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5451802127419136</v>
+        <v>-0.5324492822907271</v>
       </c>
       <c r="J10" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K10" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06816229568431609</v>
+        <v>0.0657819315890279</v>
       </c>
       <c r="M10" t="n">
-        <v>11.58140226546639</v>
+        <v>11.57903028933088</v>
       </c>
       <c r="N10" t="n">
-        <v>218.7418265680359</v>
+        <v>218.0808629179498</v>
       </c>
       <c r="O10" t="n">
-        <v>14.78992314273593</v>
+        <v>14.7675611702796</v>
       </c>
       <c r="P10" t="n">
-        <v>376.5172355781795</v>
+        <v>376.3878024882867</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27912,28 +28007,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4965664523547295</v>
+        <v>-0.4824109951037021</v>
       </c>
       <c r="J11" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05589206530678159</v>
+        <v>0.05341942514855824</v>
       </c>
       <c r="M11" t="n">
-        <v>11.39395331201098</v>
+        <v>11.38475106304255</v>
       </c>
       <c r="N11" t="n">
-        <v>218.8313735584948</v>
+        <v>218.288867534957</v>
       </c>
       <c r="O11" t="n">
-        <v>14.79295013033218</v>
+        <v>14.77460211088465</v>
       </c>
       <c r="P11" t="n">
-        <v>376.7337007802873</v>
+        <v>376.5900484905495</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27990,28 +28085,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7135419519883135</v>
+        <v>-0.678717915046974</v>
       </c>
       <c r="J12" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K12" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1151480828249097</v>
+        <v>0.1060901855844457</v>
       </c>
       <c r="M12" t="n">
-        <v>11.37963340268237</v>
+        <v>11.42012960534616</v>
       </c>
       <c r="N12" t="n">
-        <v>205.6907677734034</v>
+        <v>206.5863450911054</v>
       </c>
       <c r="O12" t="n">
-        <v>14.3419234335358</v>
+        <v>14.37311187916887</v>
       </c>
       <c r="P12" t="n">
-        <v>381.8694134901684</v>
+        <v>381.5210266862063</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28068,28 +28163,28 @@
         <v>0.0574</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5017254942296735</v>
+        <v>-0.5217375540441568</v>
       </c>
       <c r="J13" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05646584906181895</v>
+        <v>0.06042886912819867</v>
       </c>
       <c r="M13" t="n">
-        <v>11.51615659781349</v>
+        <v>11.57902391176785</v>
       </c>
       <c r="N13" t="n">
-        <v>225.2915719652288</v>
+        <v>227.557368507666</v>
       </c>
       <c r="O13" t="n">
-        <v>15.00971591887164</v>
+        <v>15.08500475663385</v>
       </c>
       <c r="P13" t="n">
-        <v>382.9293688922463</v>
+        <v>383.1288978850976</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28146,28 +28241,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4379033341186126</v>
+        <v>-0.4317792267835163</v>
       </c>
       <c r="J14" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04496129080962608</v>
+        <v>0.0440254604877699</v>
       </c>
       <c r="M14" t="n">
-        <v>11.49424790619303</v>
+        <v>11.48285802543269</v>
       </c>
       <c r="N14" t="n">
-        <v>216.4830795588696</v>
+        <v>216.0260045021284</v>
       </c>
       <c r="O14" t="n">
-        <v>14.71336397833173</v>
+        <v>14.6978231212016</v>
       </c>
       <c r="P14" t="n">
-        <v>385.3630265945347</v>
+        <v>385.3018378518643</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28224,28 +28319,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1142670267225398</v>
+        <v>-0.2974807452779047</v>
       </c>
       <c r="J15" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K15" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009700926313233049</v>
+        <v>0.01629674357055744</v>
       </c>
       <c r="M15" t="n">
-        <v>14.70893926753427</v>
+        <v>13.12229849026821</v>
       </c>
       <c r="N15" t="n">
-        <v>709.9231324382232</v>
+        <v>281.0511114612996</v>
       </c>
       <c r="O15" t="n">
-        <v>26.64438275581221</v>
+        <v>16.76457907199879</v>
       </c>
       <c r="P15" t="n">
-        <v>385.2541253441252</v>
+        <v>389.3939172044345</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28305,7 +28400,7 @@
         <v>-0.5458709709139139</v>
       </c>
       <c r="J16" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K16" t="n">
         <v>263</v>
@@ -28361,7 +28456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q450"/>
+  <dimension ref="A1:Q451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58731,11 +58826,19 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>2025-05-11 22:26:34+00:00</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr"/>
-      <c r="C442" t="inlineStr"/>
+          <t>2025-05-18 22:32:16+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>-45.50384050630765,166.71799524772578</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>-45.50315110309928,166.71830846596194</t>
+        </is>
+      </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
@@ -58746,12 +58849,12 @@
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
-      <c r="N442" t="inlineStr"/>
-      <c r="O442" t="inlineStr">
-        <is>
-          <t>-45.49616921081874,166.72231540838817</t>
-        </is>
-      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>-45.49826740086031,166.72507395908056</t>
+        </is>
+      </c>
+      <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="inlineStr">
         <is>
@@ -58762,19 +58865,11 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>2025-05-18 22:32:16+00:00</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>-45.50384050630765,166.71799524772578</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>-45.50315110309928,166.71830846596194</t>
-        </is>
-      </c>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
@@ -58782,108 +58877,132 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>-45.499509765897194,166.7229796622434</t>
+        </is>
+      </c>
       <c r="L443" t="inlineStr"/>
       <c r="M443" t="inlineStr"/>
-      <c r="N443" t="inlineStr">
-        <is>
-          <t>-45.49826740086031,166.72507395908056</t>
-        </is>
-      </c>
+      <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr"/>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04 22:26:25+00:00</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr"/>
-      <c r="C444" t="inlineStr"/>
-      <c r="D444" t="inlineStr"/>
-      <c r="E444" t="inlineStr"/>
-      <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr"/>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>-45.499509765897194,166.7229796622434</t>
-        </is>
-      </c>
+          <t>2025-06-12 22:26:30+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>-45.50390889880725,166.71808519477133</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>-45.503438640593735,166.71868662270353</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-45.50288252486338,166.7191751383071</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-45.50246945587992,166.7198517886216</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>-45.502085341425364,166.72056652456172</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>-45.501640288707556,166.72118704235388</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>-45.50117818942112,166.72172413003972</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>-45.500722484012016,166.72228723269646</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>-45.50038518246611,166.72313323422117</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr"/>
       <c r="M444" t="inlineStr"/>
       <c r="N444" t="inlineStr"/>
-      <c r="O444" t="inlineStr">
-        <is>
-          <t>-45.49628933964031,166.72256375283615</t>
-        </is>
-      </c>
+      <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr"/>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12 22:26:30+00:00</t>
+          <t>2025-06-20 22:26:40+00:00</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>-45.50390889880725,166.71808519477133</t>
+          <t>-45.50387839233364,166.71804507385608</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>-45.503438640593735,166.71868662270353</t>
+          <t>-45.50338850964424,166.71862069229294</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>-45.50288252486338,166.7191751383071</t>
+          <t>-45.50282465107161,166.71909902490404</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-45.50246945587992,166.7198517886216</t>
+          <t>-45.50245118099329,166.71982775403046</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>-45.502085341425364,166.72056652456172</t>
+          <t>-45.502076710169995,166.72055517290755</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>-45.501640288707556,166.72118704235388</t>
+          <t>-45.501642941816776,166.72119066795912</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>-45.50117818942112,166.72172413003972</t>
+          <t>-45.501196231409914,166.72175340254486</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>-45.500722484012016,166.72228723269646</t>
-        </is>
-      </c>
-      <c r="J445" t="inlineStr">
-        <is>
-          <t>-45.50038518246611,166.72313323422117</t>
-        </is>
-      </c>
+          <t>-45.500768636179465,166.7223729630719</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr"/>
       <c r="M445" t="inlineStr"/>
@@ -58892,57 +59011,61 @@
       <c r="P445" t="inlineStr"/>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20 22:26:40+00:00</t>
+          <t>2025-07-05 22:32:28+00:00</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>-45.50387839233364,166.71804507385608</t>
+          <t>-45.503836684759655,166.71799022178936</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>-45.50338850964424,166.71862069229294</t>
+          <t>-45.503351541152675,166.71857207277287</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>-45.50282465107161,166.71909902490404</t>
+          <t>-45.50282769390918,166.71910302672265</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>-45.50245118099329,166.71982775403046</t>
+          <t>-45.502455739233206,166.71983374889098</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>-45.502076710169995,166.72055517290755</t>
+          <t>-45.50209581752794,166.72058030252833</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>-45.501642941816776,166.72119066795912</t>
+          <t>-45.501657566270666,166.72121065300874</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>-45.501196231409914,166.72175340254486</t>
+          <t>-45.50111672830176,166.72162441171395</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>-45.500768636179465,166.7223729630719</t>
-        </is>
-      </c>
-      <c r="J446" t="inlineStr"/>
+          <t>-45.500670930991106,166.722191470213</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>-45.500265602470584,166.72291110570285</t>
+        </is>
+      </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr"/>
       <c r="M446" t="inlineStr"/>
@@ -58951,59 +59074,59 @@
       <c r="P446" t="inlineStr"/>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>2025-07-05 22:32:28+00:00</t>
+          <t>2025-07-06 22:26:44+00:00</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>-45.503836684759655,166.71799022178936</t>
+          <t>-45.50384894006806,166.71800633944986</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>-45.503351541152675,166.71857207277287</t>
+          <t>-45.503345185449184,166.71856371400793</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>-45.50282769390918,166.71910302672265</t>
+          <t>-45.502892593772685,166.71918838057417</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>-45.502455739233206,166.71983374889098</t>
+          <t>-45.502474912588944,166.71985896512825</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>-45.50209581752794,166.72058030252833</t>
+          <t>-45.502125027617815,166.7206187191079</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>-45.501657566270666,166.72121065300874</t>
+          <t>-45.501678100897045,166.7212387146299</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>-45.50111672830176,166.72162441171395</t>
+          <t>-45.501153305268424,166.72168375640803</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>-45.500670930991106,166.722191470213</t>
+          <t>-45.50070922752778,166.7222626080407</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>-45.500265602470584,166.72291110570285</t>
+          <t>-45.500381636532,166.7231266473671</t>
         </is>
       </c>
       <c r="K447" t="inlineStr"/>
@@ -59014,63 +59137,71 @@
       <c r="P447" t="inlineStr"/>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>2025-07-06 22:26:44+00:00</t>
+          <t>2025-07-13 22:32:57+00:00</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>-45.50384894006806,166.71800633944986</t>
+          <t>-45.50391021658123,166.7180869278572</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>-45.503345185449184,166.71856371400793</t>
+          <t>-45.503420769631106,166.71866311944194</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>-45.502892593772685,166.71918838057417</t>
+          <t>-45.502925447997704,166.71923158931304</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>-45.502474912588944,166.71985896512825</t>
+          <t>-45.50257095300092,166.71998527502313</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>-45.502125027617815,166.7206187191079</t>
+          <t>-45.50217760575203,166.72068786905123</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>-45.501678100897045,166.7212387146299</t>
+          <t>-45.50169401954245,166.72126046829567</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>-45.501153305268424,166.72168375640803</t>
+          <t>-45.50119116387929,166.72174518064804</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>-45.50070922752778,166.7222626080407</t>
+          <t>-45.500745614656324,166.72233019920233</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>-45.500381636532,166.7231266473671</t>
-        </is>
-      </c>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+          <t>-45.50024699989099,166.72287655021265</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>-45.49972394046518,166.72337750267877</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>-45.49941207025497,166.72427181930655</t>
+        </is>
+      </c>
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr"/>
@@ -59084,134 +59215,142 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>2025-07-13 22:32:57+00:00</t>
+          <t>2025-07-21 22:32:36+00:00</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>-45.50391021658123,166.7180869278572</t>
+          <t>-45.503940920708416,166.71812730878082</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>-45.503420769631106,166.71866311944194</t>
+          <t>-45.503382488454314,166.7186127734526</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>-45.502925447997704,166.71923158931304</t>
+          <t>-45.50294140490345,166.71925257530756</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>-45.50257095300092,166.71998527502313</t>
+          <t>-45.50254026129176,166.71994491000814</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>-45.50217760575203,166.72068786905123</t>
+          <t>-45.50214641906016,166.7206468527786</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>-45.50169401954245,166.72126046829567</t>
+          <t>-45.50167490853955,166.72123435210764</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>-45.50119116387929,166.72174518064804</t>
+          <t>-45.501230008361404,166.72180820456458</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>-45.500745614656324,166.72233019920233</t>
+          <t>-45.500760180408406,166.72235725595925</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>-45.50024699989099,166.72287655021265</t>
+          <t>-45.50024159914033,166.7228665179779</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>-45.49972394046518,166.72337750267877</t>
+          <t>-45.49970048279134,166.72333392856262</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>-45.49941207025497,166.72427181930655</t>
-        </is>
-      </c>
-      <c r="M449" t="inlineStr"/>
+          <t>-45.499124402595726,166.72373062917868</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>-45.49866411550676,166.72432976467348</t>
+        </is>
+      </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr"/>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>2025-07-21 22:32:36+00:00</t>
+          <t>2025-07-22 22:26:50+00:00</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>-45.503940920708416,166.71812730878082</t>
+          <t>-45.503885640093024,166.71805460581905</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>-45.503382488454314,166.7186127734526</t>
+          <t>-45.503343006061115,166.71856084776522</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>-45.50294140490345,166.71925257530756</t>
+          <t>-45.50288643023467,166.71918027451005</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>-45.50254026129176,166.71994491000814</t>
+          <t>-45.502494181776754,166.7198843074246</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>-45.50214641906016,166.7206468527786</t>
+          <t>-45.50213080374708,166.72062631577458</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>-45.50167490853955,166.72123435210764</t>
+          <t>-45.50163187640941,166.72117554653462</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>-45.501230008361404,166.72180820456458</t>
+          <t>-45.501189783617946,166.72174294122118</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>-45.500760180408406,166.72235725595925</t>
+          <t>-45.5007296850632,166.7223006090576</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>-45.50024159914033,166.7228665179779</t>
+          <t>-45.50022365118553,166.72283317854533</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>-45.49970048279134,166.72333392856262</t>
-        </is>
-      </c>
-      <c r="L450" t="inlineStr"/>
+          <t>-45.4996730973022,166.72328305836237</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>-45.49916399553065,166.72380511490738</t>
+        </is>
+      </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>-45.49866411550676,166.72432976467348</t>
+          <t>-45.49884706455175,166.72469279108648</t>
         </is>
       </c>
       <c r="N450" t="inlineStr"/>
@@ -59219,6 +59358,85 @@
       <c r="P450" t="inlineStr"/>
       <c r="Q450" t="inlineStr">
         <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>-45.50383681653718,166.7179903950975</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>-45.5032568796364,166.7184475780292</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>-45.502873480214426,166.71916324311584</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-45.50250824582504,166.719902804082</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-45.50211837298928,166.72060996705656</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>-45.50163092732956,166.72117424957065</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>-45.5011954229712,166.7217520908803</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>-45.500712446180756,166.72226858686548</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>-45.500230852189716,166.72284655485</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>-45.49972606802089,166.7233814547516</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>-45.49915974499895,166.72379711842243</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr"/>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>-45.4980889950886,166.72470510110185</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>-45.497988281200755,166.72607623000778</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="inlineStr">
+        <is>
           <t>L9</t>
         </is>
       </c>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q451"/>
+  <dimension ref="A1:Q452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22029,15 +22029,72 @@
       <c r="L451" t="n">
         <v>378.7345454545454</v>
       </c>
-      <c r="M451" t="inlineStr"/>
+      <c r="M451" t="n">
+        <v>380.7811111111111</v>
+      </c>
       <c r="N451" t="n">
         <v>383.1</v>
       </c>
-      <c r="O451" t="n">
-        <v>297.33</v>
-      </c>
+      <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr"/>
       <c r="Q451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-07 22:32:57+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>381.89</v>
+      </c>
+      <c r="C452" t="n">
+        <v>398.2138461538461</v>
+      </c>
+      <c r="D452" t="n">
+        <v>398.6472727272728</v>
+      </c>
+      <c r="E452" t="n">
+        <v>391.6572727272728</v>
+      </c>
+      <c r="F452" t="n">
+        <v>375.5133333333333</v>
+      </c>
+      <c r="G452" t="n">
+        <v>368.3133333333333</v>
+      </c>
+      <c r="H452" t="n">
+        <v>369.9033333333333</v>
+      </c>
+      <c r="I452" t="n">
+        <v>375.55</v>
+      </c>
+      <c r="J452" t="n">
+        <v>370.06</v>
+      </c>
+      <c r="K452" t="n">
+        <v>371.16</v>
+      </c>
+      <c r="L452" t="n">
+        <v>375.3372727272728</v>
+      </c>
+      <c r="M452" t="n">
+        <v>390.0744444444445</v>
+      </c>
+      <c r="N452" t="n">
+        <v>394.96</v>
+      </c>
+      <c r="O452" t="n">
+        <v>402.09</v>
+      </c>
+      <c r="P452" t="n">
+        <v>411.2844444444444</v>
+      </c>
+      <c r="Q452" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22054,7 +22111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27132,6 +27189,16 @@
       </c>
       <c r="B507" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-09-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -27305,28 +27372,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2413743899234227</v>
+        <v>-0.2351452852003404</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01791652335641736</v>
+        <v>0.01709199882597257</v>
       </c>
       <c r="M2" t="n">
-        <v>10.58273818286702</v>
+        <v>10.58538771688393</v>
       </c>
       <c r="N2" t="n">
-        <v>180.7838664242229</v>
+        <v>180.5634081672956</v>
       </c>
       <c r="O2" t="n">
-        <v>13.44558910662612</v>
+        <v>13.43738844297119</v>
       </c>
       <c r="P2" t="n">
-        <v>377.5477429827943</v>
+        <v>377.486141160467</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27383,28 +27450,28 @@
         <v>0.0902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04558166266591648</v>
+        <v>-0.03394207438558742</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K3" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005923224720749687</v>
+        <v>0.0003284674528749587</v>
       </c>
       <c r="M3" t="n">
-        <v>10.81732314164475</v>
+        <v>10.8489030224291</v>
       </c>
       <c r="N3" t="n">
-        <v>198.9751034464342</v>
+        <v>199.6157129471383</v>
       </c>
       <c r="O3" t="n">
-        <v>14.10585351711956</v>
+        <v>14.12854249196067</v>
       </c>
       <c r="P3" t="n">
-        <v>379.1361050934401</v>
+        <v>379.0211682222269</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27461,28 +27528,28 @@
         <v>0.0653</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3424774867343277</v>
+        <v>-0.3306665461340276</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03523599334901195</v>
+        <v>0.03290862475406475</v>
       </c>
       <c r="M4" t="n">
-        <v>10.64036730053396</v>
+        <v>10.67004756150464</v>
       </c>
       <c r="N4" t="n">
-        <v>183.3902817284423</v>
+        <v>184.0883681129467</v>
       </c>
       <c r="O4" t="n">
-        <v>13.54216680330154</v>
+        <v>13.56791686711511</v>
       </c>
       <c r="P4" t="n">
-        <v>387.1309813121498</v>
+        <v>387.0161196759249</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27539,28 +27606,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2968027814436413</v>
+        <v>-0.2889488614192457</v>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03011639103961594</v>
+        <v>0.02868596867187101</v>
       </c>
       <c r="M5" t="n">
-        <v>9.945601036053</v>
+        <v>9.955250685891222</v>
       </c>
       <c r="N5" t="n">
-        <v>160.7137412558406</v>
+        <v>160.7472144997204</v>
       </c>
       <c r="O5" t="n">
-        <v>12.67729234717889</v>
+        <v>12.6786124832223</v>
       </c>
       <c r="P5" t="n">
-        <v>386.157111769308</v>
+        <v>386.082060013485</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27617,28 +27684,28 @@
         <v>0.0786</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2957821001646277</v>
+        <v>-0.2975051157392148</v>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K6" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03123751498605876</v>
+        <v>0.0317826876992372</v>
       </c>
       <c r="M6" t="n">
-        <v>9.39325586837864</v>
+        <v>9.372854796069081</v>
       </c>
       <c r="N6" t="n">
-        <v>152.1040426543431</v>
+        <v>151.6690533428093</v>
       </c>
       <c r="O6" t="n">
-        <v>12.33304677094606</v>
+        <v>12.31539903303216</v>
       </c>
       <c r="P6" t="n">
-        <v>386.0971070256519</v>
+        <v>386.1139827365314</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27695,28 +27762,28 @@
         <v>0.07580000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1769679336633237</v>
+        <v>-0.1837142483790348</v>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K7" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009581158248992749</v>
+        <v>0.01035901211124268</v>
       </c>
       <c r="M7" t="n">
-        <v>9.99099223041817</v>
+        <v>9.995521796750594</v>
       </c>
       <c r="N7" t="n">
-        <v>179.7489417578688</v>
+        <v>179.6092174607151</v>
       </c>
       <c r="O7" t="n">
-        <v>13.40704821196183</v>
+        <v>13.40183634658755</v>
       </c>
       <c r="P7" t="n">
-        <v>384.4951584794077</v>
+        <v>384.5621581796665</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27773,28 +27840,28 @@
         <v>0.0799</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02325285846273764</v>
+        <v>-0.02904602869552423</v>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K8" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001778650896433476</v>
+        <v>0.0002787276445093134</v>
       </c>
       <c r="M8" t="n">
-        <v>10.37325332484381</v>
+        <v>10.37313751507554</v>
       </c>
       <c r="N8" t="n">
-        <v>166.7413522922068</v>
+        <v>166.5193029251346</v>
       </c>
       <c r="O8" t="n">
-        <v>12.91283672522064</v>
+        <v>12.90423585204233</v>
       </c>
       <c r="P8" t="n">
-        <v>380.3204459383334</v>
+        <v>380.3791989983608</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27851,28 +27918,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07802037292967359</v>
+        <v>-0.07597513266487838</v>
       </c>
       <c r="J9" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K9" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001640180127365776</v>
+        <v>0.001564695880041156</v>
       </c>
       <c r="M9" t="n">
-        <v>11.24387003205627</v>
+        <v>11.22049671566893</v>
       </c>
       <c r="N9" t="n">
-        <v>205.0805851288727</v>
+        <v>204.5062224217599</v>
       </c>
       <c r="O9" t="n">
-        <v>14.32063494154057</v>
+        <v>14.300567206295</v>
       </c>
       <c r="P9" t="n">
-        <v>373.9908423597149</v>
+        <v>373.9704158264967</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27929,28 +27996,28 @@
         <v>0.0623</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5324492822907271</v>
+        <v>-0.5280215514424321</v>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K10" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0657819315890279</v>
+        <v>0.06509341194715801</v>
       </c>
       <c r="M10" t="n">
-        <v>11.57903028933088</v>
+        <v>11.56704009886824</v>
       </c>
       <c r="N10" t="n">
-        <v>218.0808629179498</v>
+        <v>217.5720224603899</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7675611702796</v>
+        <v>14.75032279173544</v>
       </c>
       <c r="P10" t="n">
-        <v>376.3878024882867</v>
+        <v>376.3425220754683</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28007,28 +28074,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4824109951037021</v>
+        <v>-0.4777703407011218</v>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K11" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05341942514855824</v>
+        <v>0.05276574615656549</v>
       </c>
       <c r="M11" t="n">
-        <v>11.38475106304255</v>
+        <v>11.36862478548496</v>
       </c>
       <c r="N11" t="n">
-        <v>218.288867534957</v>
+        <v>217.7320713761226</v>
       </c>
       <c r="O11" t="n">
-        <v>14.77460211088465</v>
+        <v>14.75574706262352</v>
       </c>
       <c r="P11" t="n">
-        <v>376.5900484905495</v>
+        <v>376.5426872825975</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28085,28 +28152,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.678717915046974</v>
+        <v>-0.6710186766201393</v>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1060901855844457</v>
+        <v>0.1044455249505387</v>
       </c>
       <c r="M12" t="n">
-        <v>11.42012960534616</v>
+        <v>11.41628986847251</v>
       </c>
       <c r="N12" t="n">
-        <v>206.5863450911054</v>
+        <v>206.3231306449717</v>
       </c>
       <c r="O12" t="n">
-        <v>14.37311187916887</v>
+        <v>14.36395247294322</v>
       </c>
       <c r="P12" t="n">
-        <v>381.5210266862063</v>
+        <v>381.44357196513</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28163,28 +28230,28 @@
         <v>0.0574</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5217375540441568</v>
+        <v>-0.5012166976963337</v>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K13" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06042886912819867</v>
+        <v>0.05637519247477807</v>
       </c>
       <c r="M13" t="n">
-        <v>11.57902391176785</v>
+        <v>11.60361658067744</v>
       </c>
       <c r="N13" t="n">
-        <v>227.557368507666</v>
+        <v>227.8027626128993</v>
       </c>
       <c r="O13" t="n">
-        <v>15.08500475663385</v>
+        <v>15.09313627490653</v>
       </c>
       <c r="P13" t="n">
-        <v>383.1288978850976</v>
+        <v>382.9234285767118</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28241,28 +28308,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4317792267835163</v>
+        <v>-0.4176399140421833</v>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0440254604877699</v>
+        <v>0.04133836139731084</v>
       </c>
       <c r="M14" t="n">
-        <v>11.48285802543269</v>
+        <v>11.50858859194796</v>
       </c>
       <c r="N14" t="n">
-        <v>216.0260045021284</v>
+        <v>216.7373604178981</v>
       </c>
       <c r="O14" t="n">
-        <v>14.6978231212016</v>
+        <v>14.72200259536379</v>
       </c>
       <c r="P14" t="n">
-        <v>385.3018378518643</v>
+        <v>385.1598830031895</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28319,28 +28386,28 @@
         <v>0.0636</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2974807452779047</v>
+        <v>-0.2244626273653521</v>
       </c>
       <c r="J15" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K15" t="n">
         <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01629674357055744</v>
+        <v>0.0101848564404069</v>
       </c>
       <c r="M15" t="n">
-        <v>13.12229849026821</v>
+        <v>12.89749891628924</v>
       </c>
       <c r="N15" t="n">
-        <v>281.0511114612996</v>
+        <v>257.6655761810437</v>
       </c>
       <c r="O15" t="n">
-        <v>16.76457907199879</v>
+        <v>16.05196486979222</v>
       </c>
       <c r="P15" t="n">
-        <v>389.3939172044345</v>
+        <v>388.6536798659963</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28397,28 +28464,28 @@
         <v>0.055</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5458709709139139</v>
+        <v>-0.5249830066931774</v>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K16" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03765621807626751</v>
+        <v>0.03497948180407084</v>
       </c>
       <c r="M16" t="n">
-        <v>15.56246483954631</v>
+        <v>15.59522030176744</v>
       </c>
       <c r="N16" t="n">
-        <v>406.0138651085593</v>
+        <v>407.2563193340446</v>
       </c>
       <c r="O16" t="n">
-        <v>20.1497857335645</v>
+        <v>20.18059264080331</v>
       </c>
       <c r="P16" t="n">
-        <v>398.1345187699646</v>
+        <v>397.924249644105</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28456,7 +28523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q451"/>
+  <dimension ref="A1:Q452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59423,19 +59490,106 @@
           <t>-45.49915974499895,166.72379711842243</t>
         </is>
       </c>
-      <c r="M451" t="inlineStr"/>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>-45.49863216306525,166.7242663617951</t>
+        </is>
+      </c>
       <c r="N451" t="inlineStr">
         <is>
           <t>-45.4980889950886,166.72470510110185</t>
         </is>
       </c>
-      <c r="O451" t="inlineStr">
-        <is>
-          <t>-45.497988281200755,166.72607623000778</t>
-        </is>
-      </c>
+      <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr"/>
       <c r="Q451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-07 22:32:57+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-45.50389677528568,166.71806925038513</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-45.503337942784846,166.718554188751</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-45.50288380668772,166.71917682411595</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-45.50247857834714,166.719863786229</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-45.502133658867855,166.7206300707815</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-45.50173284549203,166.72131352606866</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-45.50127131756146,166.7218752275572</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-45.50073388567575,166.72230841193655</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-45.50024438134532,166.72287168609859</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>-45.499718921615276,166.7233681798415</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>-45.49917812952882,166.7238317050798</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>-45.49858358088846,166.72416996097795</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>-45.49802867864061,166.72458039652665</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>-45.49745550981936,166.7249747064224</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>-45.49687183723099,166.72534731059264</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0491/nzd0491.xlsx
+++ b/data/nzd0491/nzd0491.xlsx
@@ -27363,13 +27363,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0428</v>
+        <v>0.0419</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0575</v>
+        <v>0.1145</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2351452852003406</v>
@@ -27441,13 +27441,13 @@
         <v>0.928557245032964</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0541</v>
+        <v>0.0341</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0902</v>
+        <v>0.0725</v>
       </c>
       <c r="I3" t="n">
         <v>-0.03394577336396835</v>
@@ -27519,13 +27519,13 @@
         <v>0.857114490065451</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0467</v>
+        <v>0.033</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0653</v>
+        <v>0.093</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3306807373472741</v>
@@ -27600,10 +27600,10 @@
         <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0474</v>
+        <v>0.0387</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0864</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2889657095405501</v>
@@ -27675,13 +27675,13 @@
         <v>0.7142289801313789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0514</v>
+        <v>0.0644</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0786</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2975177749689821</v>
@@ -27753,13 +27753,13 @@
         <v>0.6427862251657218</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0522</v>
+        <v>0.0708</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.183727929140141</v>
@@ -27834,10 +27834,10 @@
         <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0512</v>
+        <v>0.0491</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0799</v>
+        <v>0.0784</v>
       </c>
       <c r="I8" t="n">
         <v>-0.02906431597636353</v>
@@ -27912,10 +27912,10 @@
         <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0428</v>
+        <v>0.0383</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0577</v>
+        <v>0.0743</v>
       </c>
       <c r="I9" t="n">
         <v>-0.0759751326648785</v>
@@ -27987,13 +27987,13 @@
         <v>0.4286396280745311</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0438</v>
+        <v>0.0381</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0623</v>
+        <v>0.0914</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5280215514424325</v>
@@ -28065,13 +28065,13 @@
         <v>0.35719687310716</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0424</v>
+        <v>0.0416</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0563</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>-0.4777703407011218</v>
@@ -28143,13 +28143,13 @@
         <v>0.2857541181407439</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.125</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0461</v>
+        <v>0.0596</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>-0.6710336875408974</v>
@@ -28221,13 +28221,13 @@
         <v>0.2143282649001831</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0382</v>
+        <v>0.0781</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0574</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>-0.5012140179294671</v>
@@ -28299,13 +28299,13 @@
         <v>0.1428855099327177</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0424</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>-0.4176399140421836</v>
@@ -28377,13 +28377,13 @@
         <v>0.07144275496664251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G15" t="n">
-        <v>0.043</v>
+        <v>0.0526</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0636</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2244626273653523</v>
@@ -28455,13 +28455,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.135</v>
       </c>
       <c r="G16" t="n">
-        <v>0.039</v>
+        <v>0.0572</v>
       </c>
       <c r="H16" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>-0.5250031351199536</v>
